--- a/LMR_Table.xlsx
+++ b/LMR_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_DEV\go\src\github.com\frankkopp\FrankyGo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEDB031-A30D-4A38-8EDA-5227F671860C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6160859-71EC-4252-9D5C-6D92D5E4D4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="694" yWindow="1322" windowWidth="28970" windowHeight="15434" xr2:uid="{AE6F5671-4308-494B-B7CB-D93DCDBACB2C}"/>
+    <workbookView xWindow="11664" yWindow="249" windowWidth="28486" windowHeight="15617" xr2:uid="{AE6F5671-4308-494B-B7CB-D93DCDBACB2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E1" s="1">
         <v>3</v>
@@ -619,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -823,243 +823,243 @@
       </c>
       <c r="F3">
         <f>(COLUMN(F3)*$B$1)*(ROW(F3)*$B$2)+$B$3</f>
-        <v>1.3900000000000001</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:BM7" si="0">(COLUMN(G3)*$B$1)*(ROW(G3)*$B$2)+$B$3</f>
-        <v>1.405</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.42</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>1.4350000000000001</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>1.4500000000000002</v>
+        <v>1.18</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>1.4650000000000001</v>
+        <v>1.198</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>1.48</v>
+        <v>1.216</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>1.4950000000000001</v>
+        <v>1.234</v>
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
-        <v>1.51</v>
+        <v>1.252</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>1.5249999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="P3">
         <f t="shared" si="0"/>
+        <v>1.288</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>1.306</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>1.3239999999999998</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="0"/>
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="0"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="0"/>
+        <v>1.3779999999999999</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>1.468</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>1.486</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>1.504</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>1.5219999999999998</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
         <v>1.54</v>
       </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>1.5550000000000002</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="0"/>
-        <v>1.57</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>1.585</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="0"/>
-        <v>1.615</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="0"/>
-        <v>1.6300000000000001</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="0"/>
-        <v>1.645</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="0"/>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="0"/>
-        <v>1.675</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="0"/>
-        <v>1.69</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="0"/>
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" si="0"/>
-        <v>1.7200000000000002</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="0"/>
-        <v>1.7349999999999999</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>1.7650000000000001</v>
+        <v>1.5579999999999998</v>
       </c>
       <c r="AF3">
         <f t="shared" si="0"/>
-        <v>1.78</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="AG3">
         <f t="shared" si="0"/>
-        <v>1.7949999999999999</v>
+        <v>1.5939999999999999</v>
       </c>
       <c r="AH3">
         <f t="shared" si="0"/>
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="0"/>
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>1.702</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="0"/>
+        <v>1.738</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="0"/>
+        <v>1.7559999999999998</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="0"/>
+        <v>1.774</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="0"/>
+        <v>1.7919999999999998</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="0"/>
         <v>1.81</v>
       </c>
-      <c r="AI3">
-        <f t="shared" si="0"/>
-        <v>1.8250000000000002</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" si="0"/>
-        <v>1.84</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" si="0"/>
-        <v>1.855</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" si="0"/>
-        <v>1.87</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" si="0"/>
-        <v>1.885</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" si="0"/>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" si="0"/>
-        <v>1.915</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" si="0"/>
-        <v>1.9300000000000002</v>
-      </c>
-      <c r="AQ3">
-        <f t="shared" si="0"/>
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="AR3">
-        <f t="shared" si="0"/>
-        <v>1.96</v>
-      </c>
-      <c r="AS3">
-        <f t="shared" si="0"/>
-        <v>1.9750000000000001</v>
-      </c>
       <c r="AT3">
         <f t="shared" si="0"/>
-        <v>1.9900000000000002</v>
+        <v>1.8279999999999998</v>
       </c>
       <c r="AU3">
         <f t="shared" si="0"/>
-        <v>2.0049999999999999</v>
+        <v>1.8460000000000001</v>
       </c>
       <c r="AV3">
         <f t="shared" si="0"/>
-        <v>2.02</v>
+        <v>1.8639999999999999</v>
       </c>
       <c r="AW3">
         <f t="shared" si="0"/>
-        <v>2.0350000000000001</v>
+        <v>1.8819999999999999</v>
       </c>
       <c r="AX3">
         <f t="shared" si="0"/>
-        <v>2.0499999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="AY3">
         <f t="shared" si="0"/>
-        <v>2.0649999999999999</v>
+        <v>1.9179999999999999</v>
       </c>
       <c r="AZ3">
         <f t="shared" si="0"/>
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="0"/>
+        <v>1.954</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="0"/>
+        <v>1.972</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="0"/>
+        <v>1.99</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="0"/>
+        <v>2.008</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" si="0"/>
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" si="0"/>
+        <v>2.0439999999999996</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" si="0"/>
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" si="0"/>
         <v>2.08</v>
       </c>
-      <c r="BA3">
-        <f t="shared" si="0"/>
-        <v>2.0950000000000002</v>
-      </c>
-      <c r="BB3">
-        <f t="shared" si="0"/>
-        <v>2.1100000000000003</v>
-      </c>
-      <c r="BC3">
-        <f t="shared" si="0"/>
-        <v>2.125</v>
-      </c>
-      <c r="BD3">
-        <f t="shared" si="0"/>
-        <v>2.14</v>
-      </c>
-      <c r="BE3">
-        <f t="shared" si="0"/>
-        <v>2.1550000000000002</v>
-      </c>
-      <c r="BF3">
+      <c r="BI3">
+        <f t="shared" si="0"/>
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" si="0"/>
+        <v>2.1159999999999997</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" si="0"/>
+        <v>2.1339999999999999</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" si="0"/>
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="BM3">
         <f t="shared" si="0"/>
         <v>2.17</v>
-      </c>
-      <c r="BG3">
-        <f t="shared" si="0"/>
-        <v>2.1850000000000001</v>
-      </c>
-      <c r="BH3">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BI3">
-        <f t="shared" si="0"/>
-        <v>2.2149999999999999</v>
-      </c>
-      <c r="BJ3">
-        <f t="shared" si="0"/>
-        <v>2.23</v>
-      </c>
-      <c r="BK3">
-        <f t="shared" si="0"/>
-        <v>2.2450000000000001</v>
-      </c>
-      <c r="BL3">
-        <f t="shared" si="0"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="BM3">
-        <f t="shared" si="0"/>
-        <v>2.2750000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.3">
@@ -1070,244 +1070,244 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:U30" si="1">(COLUMN(F4)*$B$1)*(ROW(F4)*$B$2)+$B$3</f>
-        <v>1.42</v>
+        <f t="shared" ref="F4:U23" si="1">(COLUMN(F4)*$B$1)*(ROW(F4)*$B$2)+$B$3</f>
+        <v>1.1439999999999999</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>1.44</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.46</v>
+        <v>1.1919999999999999</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
+        <v>1.216</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1.264</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.288</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>1.456</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
         <v>1.48</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>1.52</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>1.54</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>1.56</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>1.58</v>
-      </c>
-      <c r="O4">
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>1.504</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>1.528</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>1.552</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>1.62</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="0"/>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>1.6800000000000002</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="U4">
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>1.6480000000000001</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>1.6720000000000002</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>1.696</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="0"/>
         <v>1.72</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>1.74</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="0"/>
-        <v>1.76</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="0"/>
-        <v>1.78</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="0"/>
-        <v>1.82</v>
-      </c>
-      <c r="AA4">
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>1.744</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>1.768</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>1.792</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="AI4">
         <f t="shared" si="0"/>
         <v>1.84</v>
       </c>
-      <c r="AB4">
-        <f t="shared" si="0"/>
-        <v>1.86</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="0"/>
-        <v>1.88</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="0"/>
-        <v>1.92</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" si="0"/>
-        <v>1.94</v>
-      </c>
-      <c r="AG4">
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>1.8639999999999999</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="0"/>
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="0"/>
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="AN4">
         <f t="shared" si="0"/>
         <v>1.96</v>
       </c>
-      <c r="AH4">
-        <f t="shared" si="0"/>
-        <v>1.98</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="0"/>
-        <v>2.02</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" si="0"/>
-        <v>2.04</v>
-      </c>
-      <c r="AL4">
-        <f t="shared" si="0"/>
-        <v>2.06</v>
-      </c>
-      <c r="AM4">
+      <c r="AO4">
+        <f t="shared" si="0"/>
+        <v>1.984</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="0"/>
+        <v>2.008</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="0"/>
+        <v>2.032</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="0"/>
+        <v>2.056</v>
+      </c>
+      <c r="AS4">
         <f t="shared" si="0"/>
         <v>2.08</v>
       </c>
-      <c r="AN4">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="AO4">
-        <f t="shared" si="0"/>
-        <v>2.12</v>
-      </c>
-      <c r="AP4">
-        <f t="shared" si="0"/>
-        <v>2.14</v>
-      </c>
-      <c r="AQ4">
-        <f t="shared" si="0"/>
-        <v>2.16</v>
-      </c>
-      <c r="AR4">
-        <f t="shared" si="0"/>
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="AS4">
+      <c r="AT4">
+        <f t="shared" si="0"/>
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="0"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="0"/>
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" si="0"/>
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="AX4">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AT4">
-        <f t="shared" si="0"/>
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="AU4">
-        <f t="shared" si="0"/>
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="AV4">
-        <f t="shared" si="0"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="AW4">
-        <f t="shared" si="0"/>
-        <v>2.2800000000000002</v>
-      </c>
-      <c r="AX4">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
       <c r="AY4">
         <f t="shared" si="0"/>
+        <v>2.2240000000000002</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="0"/>
+        <v>2.2480000000000002</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" si="0"/>
+        <v>2.2720000000000002</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" si="0"/>
+        <v>2.2960000000000003</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" si="0"/>
         <v>2.3200000000000003</v>
       </c>
-      <c r="AZ4">
-        <f t="shared" si="0"/>
-        <v>2.34</v>
-      </c>
-      <c r="BA4">
-        <f t="shared" si="0"/>
-        <v>2.3600000000000003</v>
-      </c>
-      <c r="BB4">
-        <f t="shared" si="0"/>
-        <v>2.38</v>
-      </c>
-      <c r="BC4">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
       <c r="BD4">
         <f t="shared" si="0"/>
-        <v>2.42</v>
+        <v>2.3440000000000003</v>
       </c>
       <c r="BE4">
         <f t="shared" si="0"/>
-        <v>2.4400000000000004</v>
+        <v>2.3680000000000003</v>
       </c>
       <c r="BF4">
         <f t="shared" si="0"/>
-        <v>2.46</v>
+        <v>2.3919999999999999</v>
       </c>
       <c r="BG4">
         <f t="shared" si="0"/>
-        <v>2.48</v>
+        <v>2.4159999999999999</v>
       </c>
       <c r="BH4">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="BI4">
         <f t="shared" si="0"/>
-        <v>2.52</v>
+        <v>2.464</v>
       </c>
       <c r="BJ4">
         <f t="shared" si="0"/>
-        <v>2.54</v>
+        <v>2.488</v>
       </c>
       <c r="BK4">
         <f t="shared" si="0"/>
+        <v>2.512</v>
+      </c>
+      <c r="BL4">
+        <f t="shared" si="0"/>
+        <v>2.536</v>
+      </c>
+      <c r="BM4">
+        <f t="shared" si="0"/>
         <v>2.56</v>
-      </c>
-      <c r="BL4">
-        <f t="shared" si="0"/>
-        <v>2.58</v>
-      </c>
-      <c r="BM4">
-        <f t="shared" si="0"/>
-        <v>2.6</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.3">
@@ -1319,219 +1319,219 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
+        <v>1.18</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1.21</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.24</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1.27</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.33</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1.3900000000000001</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1.42</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>1.55</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>1.5750000000000002</v>
-      </c>
-      <c r="L5">
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>1.48</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1.51</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>1.54</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>1.57</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>1.625</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>1.675</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="R5">
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>1.69</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+      <c r="Y5">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>1.7749999999999999</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>1.8250000000000002</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>1.85</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>1.875</v>
-      </c>
-      <c r="X5">
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>1.78</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>1.81</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>1.84</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="0"/>
+        <v>1.8699999999999999</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="0"/>
         <v>1.9</v>
       </c>
-      <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>1.925</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>2.0249999999999999</v>
-      </c>
-      <c r="AD5">
+      <c r="AE5">
+        <f t="shared" si="0"/>
+        <v>1.93</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="0"/>
+        <v>1.96</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="0"/>
+        <v>1.99</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>2.02</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
-      <c r="AE5">
-        <f t="shared" si="0"/>
-        <v>2.0750000000000002</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>2.125</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>2.1500000000000004</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>2.1750000000000003</v>
-      </c>
       <c r="AJ5">
         <f t="shared" si="0"/>
+        <v>2.08</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="0"/>
+        <v>2.11</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="0"/>
+        <v>2.14</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="0"/>
+        <v>2.17</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="AK5">
-        <f t="shared" si="0"/>
-        <v>2.2250000000000001</v>
-      </c>
-      <c r="AL5">
-        <f t="shared" si="0"/>
-        <v>2.25</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" si="0"/>
-        <v>2.2750000000000004</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
       <c r="AO5">
         <f t="shared" si="0"/>
-        <v>2.3250000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="AP5">
         <f t="shared" si="0"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="0"/>
+        <v>2.29</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="0"/>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="0"/>
         <v>2.35</v>
       </c>
-      <c r="AQ5">
-        <f t="shared" si="0"/>
-        <v>2.375</v>
-      </c>
-      <c r="AR5">
-        <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" si="0"/>
-        <v>2.4249999999999998</v>
-      </c>
       <c r="AT5">
         <f t="shared" si="0"/>
-        <v>2.4500000000000002</v>
+        <v>2.38</v>
       </c>
       <c r="AU5">
         <f t="shared" si="0"/>
-        <v>2.4750000000000001</v>
+        <v>2.41</v>
       </c>
       <c r="AV5">
         <f t="shared" si="0"/>
+        <v>2.44</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="0"/>
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="AW5">
-        <f t="shared" si="0"/>
-        <v>2.5250000000000004</v>
-      </c>
-      <c r="AX5">
-        <f t="shared" si="0"/>
-        <v>2.5499999999999998</v>
-      </c>
       <c r="AY5">
         <f t="shared" si="0"/>
-        <v>2.5750000000000002</v>
+        <v>2.5300000000000002</v>
       </c>
       <c r="AZ5">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="BA5">
         <f t="shared" si="0"/>
-        <v>2.625</v>
+        <v>2.59</v>
       </c>
       <c r="BB5">
         <f t="shared" si="0"/>
+        <v>2.62</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" si="0"/>
         <v>2.6500000000000004</v>
       </c>
-      <c r="BC5">
-        <f t="shared" si="0"/>
-        <v>2.6749999999999998</v>
-      </c>
       <c r="BD5">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="BE5">
         <f t="shared" si="0"/>
-        <v>2.7250000000000005</v>
+        <v>2.71</v>
       </c>
       <c r="BF5">
         <f t="shared" si="0"/>
-        <v>2.75</v>
+        <v>2.7399999999999998</v>
       </c>
       <c r="BG5">
         <f t="shared" si="0"/>
-        <v>2.7749999999999999</v>
+        <v>2.77</v>
       </c>
       <c r="BH5">
         <f t="shared" si="0"/>
@@ -1539,23 +1539,23 @@
       </c>
       <c r="BI5">
         <f t="shared" si="0"/>
-        <v>2.8250000000000002</v>
+        <v>2.83</v>
       </c>
       <c r="BJ5">
         <f t="shared" si="0"/>
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="BK5">
         <f t="shared" si="0"/>
-        <v>2.875</v>
+        <v>2.89</v>
       </c>
       <c r="BL5">
         <f t="shared" si="0"/>
-        <v>2.9000000000000004</v>
+        <v>2.92</v>
       </c>
       <c r="BM5">
         <f t="shared" si="0"/>
-        <v>2.9249999999999998</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.3">
@@ -1567,179 +1567,179 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>1.48</v>
+        <v>1.216</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1.51</v>
+        <v>1.252</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
+        <v>1.288</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.3239999999999998</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1.468</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1.504</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
         <v>1.54</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1.57</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>1.6300000000000001</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>1.69</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>1.7200000000000002</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
       <c r="P6">
         <f t="shared" si="0"/>
-        <v>1.78</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>1.81</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="R6">
         <f t="shared" si="0"/>
-        <v>1.84</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="S6">
         <f t="shared" si="0"/>
-        <v>1.87</v>
+        <v>1.6839999999999999</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>1.9000000000000001</v>
+        <v>1.72</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>1.9300000000000002</v>
+        <v>1.7559999999999998</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>1.96</v>
+        <v>1.7919999999999998</v>
       </c>
       <c r="W6">
         <f t="shared" si="0"/>
-        <v>1.9900000000000002</v>
+        <v>1.8279999999999998</v>
       </c>
       <c r="X6">
         <f t="shared" si="0"/>
-        <v>2.02</v>
+        <v>1.8639999999999999</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>2.0499999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="Z6">
         <f t="shared" si="0"/>
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>1.972</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="0"/>
+        <v>2.008</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="0"/>
+        <v>2.0439999999999996</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
         <v>2.08</v>
       </c>
-      <c r="AA6">
-        <f t="shared" si="0"/>
-        <v>2.1100000000000003</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="0"/>
-        <v>2.14</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="0"/>
-        <v>2.17</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
-      </c>
       <c r="AE6">
         <f t="shared" si="0"/>
-        <v>2.23</v>
+        <v>2.1159999999999997</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="0"/>
+        <v>2.1879999999999997</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>2.2240000000000002</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="AG6">
-        <f t="shared" si="0"/>
-        <v>2.29</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="0"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="0"/>
-        <v>2.35</v>
-      </c>
       <c r="AJ6">
         <f t="shared" si="0"/>
-        <v>2.38</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="AK6">
         <f t="shared" si="0"/>
-        <v>2.41</v>
+        <v>2.3319999999999999</v>
       </c>
       <c r="AL6">
         <f t="shared" si="0"/>
-        <v>2.4400000000000004</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="AM6">
         <f t="shared" si="0"/>
-        <v>2.4699999999999998</v>
+        <v>2.4039999999999999</v>
       </c>
       <c r="AN6">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AO6">
         <f t="shared" si="0"/>
-        <v>2.5300000000000002</v>
+        <v>2.476</v>
       </c>
       <c r="AP6">
         <f t="shared" si="0"/>
-        <v>2.56</v>
+        <v>2.5119999999999996</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="0"/>
-        <v>2.59</v>
+        <v>2.548</v>
       </c>
       <c r="AR6">
         <f t="shared" si="0"/>
+        <v>2.5839999999999996</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="0"/>
         <v>2.62</v>
       </c>
-      <c r="AS6">
-        <f t="shared" si="0"/>
-        <v>2.6500000000000004</v>
-      </c>
       <c r="AT6">
         <f t="shared" si="0"/>
-        <v>2.68</v>
+        <v>2.6559999999999997</v>
       </c>
       <c r="AU6">
         <f t="shared" si="0"/>
-        <v>2.71</v>
+        <v>2.6920000000000002</v>
       </c>
       <c r="AV6">
         <f t="shared" si="0"/>
-        <v>2.74</v>
+        <v>2.7279999999999998</v>
       </c>
       <c r="AW6">
         <f t="shared" si="0"/>
-        <v>2.77</v>
+        <v>2.7639999999999998</v>
       </c>
       <c r="AX6">
         <f t="shared" si="0"/>
@@ -1747,63 +1747,63 @@
       </c>
       <c r="AY6">
         <f t="shared" si="0"/>
-        <v>2.83</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="AZ6">
         <f t="shared" si="0"/>
-        <v>2.8600000000000003</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="BA6">
         <f t="shared" si="0"/>
-        <v>2.89</v>
+        <v>2.9079999999999999</v>
       </c>
       <c r="BB6">
         <f t="shared" si="0"/>
-        <v>2.92</v>
+        <v>2.944</v>
       </c>
       <c r="BC6">
         <f t="shared" si="0"/>
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="BD6">
         <f t="shared" si="0"/>
-        <v>2.9800000000000004</v>
+        <v>3.016</v>
       </c>
       <c r="BE6">
         <f t="shared" si="0"/>
-        <v>3.0100000000000002</v>
+        <v>3.052</v>
       </c>
       <c r="BF6">
         <f t="shared" si="0"/>
-        <v>3.04</v>
+        <v>3.0879999999999996</v>
       </c>
       <c r="BG6">
         <f t="shared" si="0"/>
-        <v>3.0700000000000003</v>
+        <v>3.1239999999999997</v>
       </c>
       <c r="BH6">
         <f t="shared" si="0"/>
-        <v>3.0999999999999996</v>
+        <v>3.1599999999999997</v>
       </c>
       <c r="BI6">
         <f t="shared" si="0"/>
-        <v>3.13</v>
+        <v>3.1959999999999997</v>
       </c>
       <c r="BJ6">
         <f t="shared" si="0"/>
-        <v>3.16</v>
+        <v>3.2319999999999998</v>
       </c>
       <c r="BK6">
         <f t="shared" si="0"/>
-        <v>3.1900000000000004</v>
+        <v>3.2679999999999998</v>
       </c>
       <c r="BL6">
         <f t="shared" si="0"/>
-        <v>3.2199999999999998</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="BM6">
         <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.3">
@@ -1815,243 +1815,243 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1.51</v>
+        <v>1.252</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1.5450000000000002</v>
+        <v>1.294</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.58</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>1.615</v>
+        <v>1.3780000000000001</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>1.6500000000000001</v>
+        <v>1.42</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1.6850000000000001</v>
+        <v>1.462</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>1.72</v>
+        <v>1.504</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>1.7550000000000001</v>
+        <v>1.546</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>1.79</v>
+        <v>1.5880000000000001</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>1.8250000000000002</v>
+        <v>1.63</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1.86</v>
+        <v>1.6720000000000002</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>1.895</v>
+        <v>1.714</v>
       </c>
       <c r="R7">
         <f t="shared" si="0"/>
-        <v>1.9300000000000002</v>
+        <v>1.756</v>
       </c>
       <c r="S7">
         <f t="shared" si="0"/>
-        <v>1.9650000000000001</v>
+        <v>1.798</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>2.0350000000000001</v>
+        <v>1.8820000000000001</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>2.0700000000000003</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
-        <v>2.105</v>
+        <v>1.9660000000000002</v>
       </c>
       <c r="X7">
         <f t="shared" si="0"/>
-        <v>2.14</v>
+        <v>2.008</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>2.1749999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="Z7">
-        <f t="shared" ref="Z7:AO30" si="2">(COLUMN(Z7)*$B$1)*(ROW(Z7)*$B$2)+$B$3</f>
-        <v>2.21</v>
+        <f t="shared" ref="Z7:AO25" si="2">(COLUMN(Z7)*$B$1)*(ROW(Z7)*$B$2)+$B$3</f>
+        <v>2.0920000000000001</v>
       </c>
       <c r="AA7">
         <f t="shared" si="2"/>
-        <v>2.2450000000000001</v>
+        <v>2.1340000000000003</v>
       </c>
       <c r="AB7">
         <f t="shared" si="2"/>
-        <v>2.2800000000000002</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="AC7">
         <f t="shared" si="2"/>
-        <v>2.3149999999999999</v>
+        <v>2.218</v>
       </c>
       <c r="AD7">
         <f t="shared" si="2"/>
-        <v>2.35</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="AE7">
         <f t="shared" si="2"/>
-        <v>2.3849999999999998</v>
+        <v>2.302</v>
       </c>
       <c r="AF7">
         <f t="shared" si="2"/>
-        <v>2.42</v>
+        <v>2.3440000000000003</v>
       </c>
       <c r="AG7">
         <f t="shared" si="2"/>
-        <v>2.4550000000000001</v>
+        <v>2.3860000000000001</v>
       </c>
       <c r="AH7">
         <f t="shared" si="2"/>
-        <v>2.4900000000000002</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="AI7">
         <f t="shared" si="2"/>
-        <v>2.5250000000000004</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="2"/>
-        <v>2.56</v>
+        <v>2.512</v>
       </c>
       <c r="AK7">
         <f t="shared" si="2"/>
-        <v>2.5949999999999998</v>
+        <v>2.5540000000000003</v>
       </c>
       <c r="AL7">
         <f t="shared" si="2"/>
-        <v>2.63</v>
+        <v>2.5960000000000001</v>
       </c>
       <c r="AM7">
         <f t="shared" si="2"/>
-        <v>2.665</v>
+        <v>2.6379999999999999</v>
       </c>
       <c r="AN7">
         <f t="shared" si="2"/>
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AO7">
         <f t="shared" si="2"/>
-        <v>2.7350000000000003</v>
+        <v>2.7220000000000004</v>
       </c>
       <c r="AP7">
-        <f t="shared" ref="AP7:BE30" si="3">(COLUMN(AP7)*$B$1)*(ROW(AP7)*$B$2)+$B$3</f>
-        <v>2.77</v>
+        <f t="shared" ref="AP7:BE22" si="3">(COLUMN(AP7)*$B$1)*(ROW(AP7)*$B$2)+$B$3</f>
+        <v>2.7640000000000002</v>
       </c>
       <c r="AQ7">
         <f t="shared" si="3"/>
-        <v>2.8049999999999997</v>
+        <v>2.806</v>
       </c>
       <c r="AR7">
         <f t="shared" si="3"/>
-        <v>2.84</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="AS7">
         <f t="shared" si="3"/>
-        <v>2.875</v>
+        <v>2.89</v>
       </c>
       <c r="AT7">
         <f t="shared" si="3"/>
-        <v>2.91</v>
+        <v>2.9320000000000004</v>
       </c>
       <c r="AU7">
         <f t="shared" si="3"/>
-        <v>2.9450000000000003</v>
+        <v>2.9740000000000002</v>
       </c>
       <c r="AV7">
         <f t="shared" si="3"/>
-        <v>2.98</v>
+        <v>3.016</v>
       </c>
       <c r="AW7">
         <f t="shared" si="3"/>
-        <v>3.0149999999999997</v>
+        <v>3.0579999999999998</v>
       </c>
       <c r="AX7">
         <f t="shared" si="3"/>
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AY7">
         <f t="shared" si="3"/>
-        <v>3.085</v>
+        <v>3.1420000000000003</v>
       </c>
       <c r="AZ7">
         <f t="shared" si="3"/>
-        <v>3.12</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="BA7">
         <f t="shared" si="3"/>
-        <v>3.1550000000000002</v>
+        <v>3.2260000000000004</v>
       </c>
       <c r="BB7">
         <f t="shared" si="3"/>
-        <v>3.1900000000000004</v>
+        <v>3.2680000000000002</v>
       </c>
       <c r="BC7">
         <f t="shared" si="3"/>
-        <v>3.2250000000000005</v>
+        <v>3.3100000000000005</v>
       </c>
       <c r="BD7">
         <f t="shared" si="3"/>
-        <v>3.2600000000000002</v>
+        <v>3.3520000000000003</v>
       </c>
       <c r="BE7">
         <f t="shared" si="3"/>
-        <v>3.2949999999999999</v>
+        <v>3.3940000000000006</v>
       </c>
       <c r="BF7">
-        <f t="shared" ref="BF7:BM30" si="4">(COLUMN(BF7)*$B$1)*(ROW(BF7)*$B$2)+$B$3</f>
-        <v>3.33</v>
+        <f t="shared" ref="BF7:BM21" si="4">(COLUMN(BF7)*$B$1)*(ROW(BF7)*$B$2)+$B$3</f>
+        <v>3.4359999999999999</v>
       </c>
       <c r="BG7">
         <f t="shared" si="4"/>
-        <v>3.3650000000000002</v>
+        <v>3.4779999999999998</v>
       </c>
       <c r="BH7">
         <f t="shared" si="4"/>
-        <v>3.4000000000000004</v>
+        <v>3.52</v>
       </c>
       <c r="BI7">
         <f t="shared" si="4"/>
-        <v>3.4349999999999996</v>
+        <v>3.5619999999999998</v>
       </c>
       <c r="BJ7">
         <f t="shared" si="4"/>
-        <v>3.4699999999999998</v>
+        <v>3.6040000000000001</v>
       </c>
       <c r="BK7">
         <f t="shared" si="4"/>
-        <v>3.5049999999999999</v>
+        <v>3.6460000000000004</v>
       </c>
       <c r="BL7">
         <f t="shared" si="4"/>
-        <v>3.54</v>
+        <v>3.6880000000000002</v>
       </c>
       <c r="BM7">
         <f t="shared" si="4"/>
-        <v>3.5750000000000002</v>
+        <v>3.7300000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.3">
@@ -2063,243 +2063,243 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1.54</v>
+        <v>1.288</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>1.58</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>1.62</v>
+        <v>1.3839999999999999</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>1.6600000000000001</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>1.7000000000000002</v>
+        <v>1.48</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>1.74</v>
+        <v>1.528</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>1.78</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>1.82</v>
+        <v>1.6240000000000001</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>1.86</v>
+        <v>1.6720000000000002</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="P8">
         <f t="shared" si="1"/>
-        <v>1.94</v>
+        <v>1.768</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>1.98</v>
+        <v>1.8160000000000001</v>
       </c>
       <c r="R8">
         <f t="shared" si="1"/>
-        <v>2.02</v>
+        <v>1.8639999999999999</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>2.06</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="T8">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="U8">
         <f t="shared" si="1"/>
-        <v>2.14</v>
+        <v>2.008</v>
       </c>
       <c r="V8">
-        <f t="shared" ref="V8:AK30" si="5">(COLUMN(V8)*$B$1)*(ROW(V8)*$B$2)+$B$3</f>
-        <v>2.1800000000000002</v>
+        <f t="shared" ref="V8:AK25" si="5">(COLUMN(V8)*$B$1)*(ROW(V8)*$B$2)+$B$3</f>
+        <v>2.056</v>
       </c>
       <c r="W8">
         <f t="shared" si="5"/>
-        <v>2.2200000000000002</v>
+        <v>2.1040000000000001</v>
       </c>
       <c r="X8">
         <f t="shared" si="5"/>
-        <v>2.2599999999999998</v>
+        <v>2.1520000000000001</v>
       </c>
       <c r="Y8">
         <f t="shared" si="5"/>
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Z8">
         <f t="shared" si="5"/>
-        <v>2.34</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="AA8">
         <f t="shared" si="5"/>
-        <v>2.38</v>
+        <v>2.2960000000000003</v>
       </c>
       <c r="AB8">
         <f t="shared" si="5"/>
-        <v>2.42</v>
+        <v>2.3440000000000003</v>
       </c>
       <c r="AC8">
         <f t="shared" si="5"/>
-        <v>2.46</v>
+        <v>2.3919999999999999</v>
       </c>
       <c r="AD8">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AE8">
         <f t="shared" si="5"/>
-        <v>2.54</v>
+        <v>2.488</v>
       </c>
       <c r="AF8">
         <f t="shared" si="5"/>
-        <v>2.58</v>
+        <v>2.536</v>
       </c>
       <c r="AG8">
         <f t="shared" si="5"/>
-        <v>2.62</v>
+        <v>2.5840000000000001</v>
       </c>
       <c r="AH8">
         <f t="shared" si="5"/>
-        <v>2.66</v>
+        <v>2.6320000000000001</v>
       </c>
       <c r="AI8">
         <f t="shared" si="5"/>
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="5"/>
-        <v>2.74</v>
+        <v>2.7279999999999998</v>
       </c>
       <c r="AK8">
         <f t="shared" si="5"/>
-        <v>2.7800000000000002</v>
+        <v>2.7759999999999998</v>
       </c>
       <c r="AL8">
         <f t="shared" si="2"/>
-        <v>2.8200000000000003</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="AM8">
         <f t="shared" si="2"/>
-        <v>2.8600000000000003</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="AN8">
         <f t="shared" si="2"/>
-        <v>2.9000000000000004</v>
+        <v>2.92</v>
       </c>
       <c r="AO8">
         <f t="shared" si="2"/>
-        <v>2.9400000000000004</v>
+        <v>2.968</v>
       </c>
       <c r="AP8">
         <f t="shared" si="3"/>
-        <v>2.98</v>
+        <v>3.016</v>
       </c>
       <c r="AQ8">
         <f t="shared" si="3"/>
-        <v>3.02</v>
+        <v>3.0640000000000001</v>
       </c>
       <c r="AR8">
         <f t="shared" si="3"/>
-        <v>3.06</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="AS8">
         <f t="shared" si="3"/>
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="AT8">
         <f t="shared" si="3"/>
-        <v>3.14</v>
+        <v>3.2080000000000002</v>
       </c>
       <c r="AU8">
         <f t="shared" si="3"/>
-        <v>3.18</v>
+        <v>3.2560000000000002</v>
       </c>
       <c r="AV8">
         <f t="shared" si="3"/>
-        <v>3.2199999999999998</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="AW8">
         <f t="shared" si="3"/>
-        <v>3.26</v>
+        <v>3.3519999999999999</v>
       </c>
       <c r="AX8">
         <f t="shared" si="3"/>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AY8">
         <f t="shared" si="3"/>
-        <v>3.34</v>
+        <v>3.448</v>
       </c>
       <c r="AZ8">
         <f t="shared" si="3"/>
-        <v>3.38</v>
+        <v>3.496</v>
       </c>
       <c r="BA8">
         <f t="shared" si="3"/>
-        <v>3.42</v>
+        <v>3.544</v>
       </c>
       <c r="BB8">
         <f t="shared" si="3"/>
-        <v>3.46</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="BC8">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="BD8">
         <f t="shared" si="3"/>
-        <v>3.54</v>
+        <v>3.6880000000000002</v>
       </c>
       <c r="BE8">
         <f t="shared" si="3"/>
-        <v>3.58</v>
+        <v>3.7360000000000002</v>
       </c>
       <c r="BF8">
         <f t="shared" si="4"/>
-        <v>3.62</v>
+        <v>3.7839999999999998</v>
       </c>
       <c r="BG8">
         <f t="shared" si="4"/>
-        <v>3.66</v>
+        <v>3.8319999999999999</v>
       </c>
       <c r="BH8">
         <f t="shared" si="4"/>
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="BI8">
         <f t="shared" si="4"/>
-        <v>3.74</v>
+        <v>3.9279999999999999</v>
       </c>
       <c r="BJ8">
         <f t="shared" si="4"/>
-        <v>3.7800000000000002</v>
+        <v>3.976</v>
       </c>
       <c r="BK8">
         <f t="shared" si="4"/>
-        <v>3.8200000000000003</v>
+        <v>4.024</v>
       </c>
       <c r="BL8">
         <f t="shared" si="4"/>
-        <v>3.8600000000000003</v>
+        <v>4.0720000000000001</v>
       </c>
       <c r="BM8">
         <f t="shared" si="4"/>
-        <v>3.9000000000000004</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.3">
@@ -2311,243 +2311,243 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1.57</v>
+        <v>1.3239999999999998</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>1.6150000000000002</v>
+        <v>1.3780000000000001</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>1.6600000000000001</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>1.7050000000000001</v>
+        <v>1.486</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>1.7949999999999999</v>
+        <v>1.5939999999999999</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>1.84</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>1.885</v>
+        <v>1.702</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>1.9300000000000002</v>
+        <v>1.756</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>1.9750000000000001</v>
+        <v>1.81</v>
       </c>
       <c r="P9">
         <f t="shared" si="1"/>
-        <v>2.02</v>
+        <v>1.8639999999999999</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>2.0649999999999999</v>
+        <v>1.9179999999999999</v>
       </c>
       <c r="R9">
         <f t="shared" si="1"/>
-        <v>2.11</v>
+        <v>1.972</v>
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>2.1550000000000002</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="T9">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>2.08</v>
       </c>
       <c r="U9">
         <f t="shared" si="1"/>
-        <v>2.2450000000000001</v>
+        <v>2.1339999999999999</v>
       </c>
       <c r="V9">
         <f t="shared" si="5"/>
-        <v>2.29</v>
+        <v>2.1879999999999997</v>
       </c>
       <c r="W9">
         <f t="shared" si="5"/>
-        <v>2.335</v>
+        <v>2.242</v>
       </c>
       <c r="X9">
         <f t="shared" si="5"/>
-        <v>2.38</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="Y9">
         <f t="shared" si="5"/>
-        <v>2.4249999999999998</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="Z9">
         <f t="shared" si="5"/>
-        <v>2.4699999999999998</v>
+        <v>2.4039999999999999</v>
       </c>
       <c r="AA9">
         <f t="shared" si="5"/>
-        <v>2.5150000000000001</v>
+        <v>2.4580000000000002</v>
       </c>
       <c r="AB9">
         <f t="shared" si="5"/>
-        <v>2.5600000000000005</v>
+        <v>2.512</v>
       </c>
       <c r="AC9">
         <f t="shared" si="5"/>
-        <v>2.605</v>
+        <v>2.5659999999999998</v>
       </c>
       <c r="AD9">
         <f t="shared" si="5"/>
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AE9">
         <f t="shared" si="5"/>
-        <v>2.6950000000000003</v>
+        <v>2.6739999999999999</v>
       </c>
       <c r="AF9">
         <f t="shared" si="5"/>
-        <v>2.74</v>
+        <v>2.7279999999999998</v>
       </c>
       <c r="AG9">
         <f t="shared" si="5"/>
-        <v>2.7850000000000001</v>
+        <v>2.782</v>
       </c>
       <c r="AH9">
         <f t="shared" si="5"/>
-        <v>2.83</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="AI9">
         <f t="shared" si="5"/>
-        <v>2.875</v>
+        <v>2.8899999999999997</v>
       </c>
       <c r="AJ9">
         <f t="shared" si="5"/>
-        <v>2.92</v>
+        <v>2.944</v>
       </c>
       <c r="AK9">
         <f t="shared" si="5"/>
-        <v>2.9649999999999999</v>
+        <v>2.9979999999999998</v>
       </c>
       <c r="AL9">
         <f t="shared" si="2"/>
-        <v>3.01</v>
+        <v>3.0519999999999996</v>
       </c>
       <c r="AM9">
         <f t="shared" si="2"/>
-        <v>3.0550000000000002</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="AN9">
         <f t="shared" si="2"/>
-        <v>3.1</v>
+        <v>3.1599999999999997</v>
       </c>
       <c r="AO9">
         <f t="shared" si="2"/>
-        <v>3.1450000000000005</v>
+        <v>3.214</v>
       </c>
       <c r="AP9">
         <f t="shared" si="3"/>
-        <v>3.19</v>
+        <v>3.2679999999999998</v>
       </c>
       <c r="AQ9">
         <f t="shared" si="3"/>
-        <v>3.2350000000000003</v>
+        <v>3.3219999999999996</v>
       </c>
       <c r="AR9">
         <f t="shared" si="3"/>
-        <v>3.2800000000000002</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="AS9">
         <f t="shared" si="3"/>
-        <v>3.3250000000000002</v>
+        <v>3.4299999999999997</v>
       </c>
       <c r="AT9">
         <f t="shared" si="3"/>
-        <v>3.37</v>
+        <v>3.484</v>
       </c>
       <c r="AU9">
         <f t="shared" si="3"/>
-        <v>3.415</v>
+        <v>3.5379999999999998</v>
       </c>
       <c r="AV9">
         <f t="shared" si="3"/>
-        <v>3.46</v>
+        <v>3.5919999999999996</v>
       </c>
       <c r="AW9">
         <f t="shared" si="3"/>
-        <v>3.5049999999999999</v>
+        <v>3.6459999999999999</v>
       </c>
       <c r="AX9">
         <f t="shared" si="3"/>
-        <v>3.55</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="AY9">
         <f t="shared" si="3"/>
-        <v>3.5949999999999998</v>
+        <v>3.7539999999999996</v>
       </c>
       <c r="AZ9">
         <f t="shared" si="3"/>
-        <v>3.6399999999999997</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="BA9">
         <f t="shared" si="3"/>
-        <v>3.6850000000000005</v>
+        <v>3.8619999999999997</v>
       </c>
       <c r="BB9">
         <f t="shared" si="3"/>
-        <v>3.7300000000000004</v>
+        <v>3.9159999999999999</v>
       </c>
       <c r="BC9">
         <f t="shared" si="3"/>
-        <v>3.7750000000000004</v>
+        <v>3.9699999999999998</v>
       </c>
       <c r="BD9">
         <f t="shared" si="3"/>
-        <v>3.8200000000000003</v>
+        <v>4.024</v>
       </c>
       <c r="BE9">
         <f t="shared" si="3"/>
-        <v>3.8650000000000002</v>
+        <v>4.0779999999999994</v>
       </c>
       <c r="BF9">
         <f t="shared" si="4"/>
-        <v>3.91</v>
+        <v>4.1319999999999997</v>
       </c>
       <c r="BG9">
         <f t="shared" si="4"/>
-        <v>3.9550000000000001</v>
+        <v>4.1859999999999999</v>
       </c>
       <c r="BH9">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>4.24</v>
       </c>
       <c r="BI9">
         <f t="shared" si="4"/>
-        <v>4.0449999999999999</v>
+        <v>4.2939999999999996</v>
       </c>
       <c r="BJ9">
         <f t="shared" si="4"/>
-        <v>4.09</v>
+        <v>4.3479999999999999</v>
       </c>
       <c r="BK9">
         <f t="shared" si="4"/>
-        <v>4.1349999999999998</v>
+        <v>4.4019999999999992</v>
       </c>
       <c r="BL9">
         <f t="shared" si="4"/>
-        <v>4.18</v>
+        <v>4.4559999999999995</v>
       </c>
       <c r="BM9">
         <f t="shared" si="4"/>
-        <v>4.2250000000000005</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.3">
@@ -2559,99 +2559,99 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.42</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.48</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.54</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
-        <v>1.7000000000000002</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>1.85</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
+        <v>1.72</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>1.78</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>1.84</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>2.0499999999999998</v>
-      </c>
       <c r="P10">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>2.1500000000000004</v>
+        <v>2.02</v>
       </c>
       <c r="R10">
         <f t="shared" si="1"/>
+        <v>2.08</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>2.14</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>2.35</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="V10">
         <f t="shared" si="5"/>
-        <v>2.4000000000000004</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="W10">
         <f t="shared" si="5"/>
-        <v>2.4500000000000002</v>
+        <v>2.38</v>
       </c>
       <c r="X10">
         <f t="shared" si="5"/>
+        <v>2.44</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
-      <c r="Y10">
-        <f t="shared" si="5"/>
-        <v>2.5499999999999998</v>
-      </c>
       <c r="Z10">
         <f t="shared" si="5"/>
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="AA10">
         <f t="shared" si="5"/>
-        <v>2.6500000000000004</v>
+        <v>2.62</v>
       </c>
       <c r="AB10">
         <f t="shared" si="5"/>
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AC10">
         <f t="shared" si="5"/>
-        <v>2.75</v>
+        <v>2.7399999999999998</v>
       </c>
       <c r="AD10">
         <f t="shared" si="5"/>
@@ -2659,143 +2659,143 @@
       </c>
       <c r="AE10">
         <f t="shared" si="5"/>
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AF10">
         <f t="shared" si="5"/>
-        <v>2.9000000000000004</v>
+        <v>2.92</v>
       </c>
       <c r="AG10">
         <f t="shared" si="5"/>
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="AH10">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="AI10">
         <f t="shared" si="5"/>
-        <v>3.0500000000000003</v>
+        <v>3.1</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="5"/>
-        <v>3.0999999999999996</v>
+        <v>3.16</v>
       </c>
       <c r="AK10">
         <f t="shared" si="5"/>
-        <v>3.1500000000000004</v>
+        <v>3.2199999999999998</v>
       </c>
       <c r="AL10">
         <f t="shared" si="2"/>
-        <v>3.2</v>
+        <v>3.2800000000000002</v>
       </c>
       <c r="AM10">
         <f t="shared" si="2"/>
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="AN10">
         <f t="shared" si="2"/>
-        <v>3.3</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="AO10">
         <f t="shared" si="2"/>
-        <v>3.3500000000000005</v>
+        <v>3.46</v>
       </c>
       <c r="AP10">
         <f t="shared" si="3"/>
-        <v>3.4000000000000004</v>
+        <v>3.52</v>
       </c>
       <c r="AQ10">
         <f t="shared" si="3"/>
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
       <c r="AR10">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="AS10">
         <f t="shared" si="3"/>
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AT10">
         <f t="shared" si="3"/>
-        <v>3.6000000000000005</v>
+        <v>3.7600000000000002</v>
       </c>
       <c r="AU10">
         <f t="shared" si="3"/>
-        <v>3.6500000000000004</v>
+        <v>3.8200000000000003</v>
       </c>
       <c r="AV10">
         <f t="shared" si="3"/>
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="AW10">
         <f t="shared" si="3"/>
-        <v>3.75</v>
+        <v>3.94</v>
       </c>
       <c r="AX10">
         <f t="shared" si="3"/>
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AY10">
         <f t="shared" si="3"/>
-        <v>3.8499999999999996</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="AZ10">
         <f t="shared" si="3"/>
-        <v>3.9000000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="BA10">
         <f t="shared" si="3"/>
-        <v>3.95</v>
+        <v>4.18</v>
       </c>
       <c r="BB10">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>4.24</v>
       </c>
       <c r="BC10">
         <f t="shared" si="3"/>
-        <v>4.05</v>
+        <v>4.3000000000000007</v>
       </c>
       <c r="BD10">
         <f t="shared" si="3"/>
-        <v>4.1000000000000005</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="BE10">
         <f t="shared" si="3"/>
-        <v>4.1500000000000004</v>
+        <v>4.42</v>
       </c>
       <c r="BF10">
         <f t="shared" si="4"/>
-        <v>4.2</v>
+        <v>4.4799999999999995</v>
       </c>
       <c r="BG10">
         <f t="shared" si="4"/>
-        <v>4.25</v>
+        <v>4.54</v>
       </c>
       <c r="BH10">
         <f t="shared" si="4"/>
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BI10">
         <f t="shared" si="4"/>
-        <v>4.3499999999999996</v>
+        <v>4.66</v>
       </c>
       <c r="BJ10">
         <f t="shared" si="4"/>
-        <v>4.4000000000000004</v>
+        <v>4.72</v>
       </c>
       <c r="BK10">
         <f t="shared" si="4"/>
-        <v>4.45</v>
+        <v>4.78</v>
       </c>
       <c r="BL10">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>4.84</v>
       </c>
       <c r="BM10">
         <f t="shared" si="4"/>
-        <v>4.55</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.3">
@@ -2807,243 +2807,243 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1.63</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>1.6850000000000001</v>
+        <v>1.462</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>1.74</v>
+        <v>1.528</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>1.7949999999999999</v>
+        <v>1.5939999999999999</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>1.85</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>1.905</v>
+        <v>1.726</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.96</v>
+        <v>1.7919999999999998</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>2.0150000000000001</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>2.0700000000000003</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>2.125</v>
+        <v>1.9899999999999998</v>
       </c>
       <c r="P11">
         <f t="shared" si="1"/>
-        <v>2.1800000000000002</v>
+        <v>2.056</v>
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>2.2350000000000003</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="R11">
         <f t="shared" si="1"/>
-        <v>2.29</v>
+        <v>2.1879999999999997</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>2.3449999999999998</v>
+        <v>2.254</v>
       </c>
       <c r="T11">
         <f t="shared" si="1"/>
-        <v>2.4000000000000004</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>2.4550000000000001</v>
+        <v>2.3860000000000001</v>
       </c>
       <c r="V11">
         <f t="shared" si="5"/>
-        <v>2.5099999999999998</v>
+        <v>2.452</v>
       </c>
       <c r="W11">
         <f t="shared" si="5"/>
-        <v>2.5650000000000004</v>
+        <v>2.5179999999999998</v>
       </c>
       <c r="X11">
         <f t="shared" si="5"/>
-        <v>2.62</v>
+        <v>2.5839999999999996</v>
       </c>
       <c r="Y11">
         <f t="shared" si="5"/>
-        <v>2.6749999999999998</v>
+        <v>2.65</v>
       </c>
       <c r="Z11">
         <f t="shared" si="5"/>
-        <v>2.7300000000000004</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="AA11">
         <f t="shared" si="5"/>
-        <v>2.7850000000000001</v>
+        <v>2.782</v>
       </c>
       <c r="AB11">
         <f t="shared" si="5"/>
-        <v>2.84</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="AC11">
         <f t="shared" si="5"/>
-        <v>2.895</v>
+        <v>2.9139999999999997</v>
       </c>
       <c r="AD11">
         <f t="shared" si="5"/>
-        <v>2.95</v>
+        <v>2.9799999999999995</v>
       </c>
       <c r="AE11">
         <f t="shared" si="5"/>
-        <v>3.0049999999999999</v>
+        <v>3.0459999999999998</v>
       </c>
       <c r="AF11">
         <f t="shared" si="5"/>
-        <v>3.06</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="AG11">
         <f t="shared" si="5"/>
-        <v>3.1150000000000002</v>
+        <v>3.1779999999999999</v>
       </c>
       <c r="AH11">
         <f t="shared" si="5"/>
-        <v>3.17</v>
+        <v>3.2440000000000002</v>
       </c>
       <c r="AI11">
         <f t="shared" si="5"/>
-        <v>3.2250000000000005</v>
+        <v>3.31</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="5"/>
-        <v>3.2800000000000002</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="AK11">
         <f t="shared" si="5"/>
-        <v>3.335</v>
+        <v>3.4419999999999997</v>
       </c>
       <c r="AL11">
         <f t="shared" si="2"/>
-        <v>3.3899999999999997</v>
+        <v>3.508</v>
       </c>
       <c r="AM11">
         <f t="shared" si="2"/>
-        <v>3.4450000000000003</v>
+        <v>3.5739999999999998</v>
       </c>
       <c r="AN11">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="AO11">
         <f t="shared" si="2"/>
-        <v>3.5550000000000006</v>
+        <v>3.706</v>
       </c>
       <c r="AP11">
         <f t="shared" si="3"/>
-        <v>3.6100000000000003</v>
+        <v>3.7719999999999998</v>
       </c>
       <c r="AQ11">
         <f t="shared" si="3"/>
-        <v>3.665</v>
+        <v>3.8379999999999996</v>
       </c>
       <c r="AR11">
         <f t="shared" si="3"/>
-        <v>3.7199999999999998</v>
+        <v>3.9039999999999999</v>
       </c>
       <c r="AS11">
         <f t="shared" si="3"/>
-        <v>3.7750000000000004</v>
+        <v>3.9699999999999998</v>
       </c>
       <c r="AT11">
         <f t="shared" si="3"/>
-        <v>3.83</v>
+        <v>4.0359999999999996</v>
       </c>
       <c r="AU11">
         <f t="shared" si="3"/>
-        <v>3.8849999999999998</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="AV11">
         <f t="shared" si="3"/>
-        <v>3.9399999999999995</v>
+        <v>4.1679999999999993</v>
       </c>
       <c r="AW11">
         <f t="shared" si="3"/>
-        <v>3.9950000000000001</v>
+        <v>4.234</v>
       </c>
       <c r="AX11">
         <f t="shared" si="3"/>
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="AY11">
         <f t="shared" si="3"/>
-        <v>4.1050000000000004</v>
+        <v>4.3659999999999997</v>
       </c>
       <c r="AZ11">
         <f t="shared" si="3"/>
-        <v>4.16</v>
+        <v>4.4320000000000004</v>
       </c>
       <c r="BA11">
         <f t="shared" si="3"/>
-        <v>4.2149999999999999</v>
+        <v>4.4979999999999993</v>
       </c>
       <c r="BB11">
         <f t="shared" si="3"/>
-        <v>4.2700000000000005</v>
+        <v>4.5640000000000001</v>
       </c>
       <c r="BC11">
         <f t="shared" si="3"/>
-        <v>4.3250000000000002</v>
+        <v>4.63</v>
       </c>
       <c r="BD11">
         <f t="shared" si="3"/>
-        <v>4.38</v>
+        <v>4.6959999999999997</v>
       </c>
       <c r="BE11">
         <f t="shared" si="3"/>
-        <v>4.4350000000000005</v>
+        <v>4.7620000000000005</v>
       </c>
       <c r="BF11">
         <f t="shared" si="4"/>
-        <v>4.49</v>
+        <v>4.8279999999999994</v>
       </c>
       <c r="BG11">
         <f t="shared" si="4"/>
-        <v>4.5449999999999999</v>
+        <v>4.8940000000000001</v>
       </c>
       <c r="BH11">
         <f t="shared" si="4"/>
-        <v>4.5999999999999996</v>
+        <v>4.9599999999999991</v>
       </c>
       <c r="BI11">
         <f t="shared" si="4"/>
-        <v>4.6550000000000002</v>
+        <v>5.0259999999999998</v>
       </c>
       <c r="BJ11">
         <f t="shared" si="4"/>
-        <v>4.71</v>
+        <v>5.0919999999999996</v>
       </c>
       <c r="BK11">
         <f t="shared" si="4"/>
-        <v>4.7649999999999997</v>
+        <v>5.1579999999999995</v>
       </c>
       <c r="BL11">
         <f t="shared" si="4"/>
-        <v>4.82</v>
+        <v>5.2240000000000002</v>
       </c>
       <c r="BM11">
         <f t="shared" si="4"/>
-        <v>4.875</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.3">
@@ -3055,79 +3055,79 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>1.6600000000000001</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>1.7200000000000002</v>
+        <v>1.504</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>1.78</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>1.84</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>1.9000000000000001</v>
+        <v>1.72</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>1.96</v>
+        <v>1.7919999999999998</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>2.02</v>
+        <v>1.8639999999999999</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>2.008</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
         <v>2.08</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>2.14</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
       <c r="P12">
         <f t="shared" si="1"/>
-        <v>2.2599999999999998</v>
+        <v>2.1520000000000001</v>
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>2.3200000000000003</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="R12">
         <f t="shared" si="1"/>
-        <v>2.38</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
-        <v>2.4400000000000004</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="T12">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>2.56</v>
+        <v>2.5119999999999996</v>
       </c>
       <c r="V12">
         <f t="shared" si="5"/>
-        <v>2.62</v>
+        <v>2.5839999999999996</v>
       </c>
       <c r="W12">
         <f t="shared" si="5"/>
-        <v>2.68</v>
+        <v>2.6559999999999997</v>
       </c>
       <c r="X12">
         <f t="shared" si="5"/>
-        <v>2.74</v>
+        <v>2.7279999999999998</v>
       </c>
       <c r="Y12">
         <f t="shared" si="5"/>
@@ -3135,163 +3135,163 @@
       </c>
       <c r="Z12">
         <f t="shared" si="5"/>
-        <v>2.8600000000000003</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="AA12">
         <f t="shared" si="5"/>
-        <v>2.92</v>
+        <v>2.944</v>
       </c>
       <c r="AB12">
         <f t="shared" si="5"/>
-        <v>2.9800000000000004</v>
+        <v>3.016</v>
       </c>
       <c r="AC12">
         <f t="shared" si="5"/>
-        <v>3.04</v>
+        <v>3.0879999999999996</v>
       </c>
       <c r="AD12">
         <f t="shared" si="5"/>
-        <v>3.0999999999999996</v>
+        <v>3.1599999999999997</v>
       </c>
       <c r="AE12">
         <f t="shared" si="5"/>
-        <v>3.16</v>
+        <v>3.2319999999999998</v>
       </c>
       <c r="AF12">
         <f t="shared" si="5"/>
-        <v>3.2199999999999998</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="AG12">
         <f t="shared" si="5"/>
-        <v>3.2800000000000002</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="AH12">
         <f t="shared" si="5"/>
-        <v>3.34</v>
+        <v>3.448</v>
       </c>
       <c r="AI12">
         <f t="shared" si="5"/>
-        <v>3.4000000000000004</v>
+        <v>3.52</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="5"/>
-        <v>3.46</v>
+        <v>3.5919999999999996</v>
       </c>
       <c r="AK12">
         <f t="shared" si="5"/>
-        <v>3.5199999999999996</v>
+        <v>3.6639999999999997</v>
       </c>
       <c r="AL12">
         <f t="shared" si="2"/>
-        <v>3.58</v>
+        <v>3.7359999999999998</v>
       </c>
       <c r="AM12">
         <f t="shared" si="2"/>
-        <v>3.6399999999999997</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="AN12">
         <f t="shared" si="2"/>
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="AO12">
         <f t="shared" si="2"/>
-        <v>3.76</v>
+        <v>3.952</v>
       </c>
       <c r="AP12">
         <f t="shared" si="3"/>
-        <v>3.8200000000000003</v>
+        <v>4.0239999999999991</v>
       </c>
       <c r="AQ12">
         <f t="shared" si="3"/>
-        <v>3.88</v>
+        <v>4.0960000000000001</v>
       </c>
       <c r="AR12">
         <f t="shared" si="3"/>
-        <v>3.9400000000000004</v>
+        <v>4.1679999999999993</v>
       </c>
       <c r="AS12">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>4.24</v>
       </c>
       <c r="AT12">
         <f t="shared" si="3"/>
-        <v>4.0600000000000005</v>
+        <v>4.3119999999999994</v>
       </c>
       <c r="AU12">
         <f t="shared" si="3"/>
-        <v>4.12</v>
+        <v>4.3840000000000003</v>
       </c>
       <c r="AV12">
         <f t="shared" si="3"/>
-        <v>4.18</v>
+        <v>4.4559999999999995</v>
       </c>
       <c r="AW12">
         <f t="shared" si="3"/>
-        <v>4.24</v>
+        <v>4.5279999999999996</v>
       </c>
       <c r="AX12">
         <f t="shared" si="3"/>
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AY12">
         <f t="shared" si="3"/>
-        <v>4.3600000000000003</v>
+        <v>4.6719999999999997</v>
       </c>
       <c r="AZ12">
         <f t="shared" si="3"/>
-        <v>4.42</v>
+        <v>4.7439999999999998</v>
       </c>
       <c r="BA12">
         <f t="shared" si="3"/>
-        <v>4.4800000000000004</v>
+        <v>4.8159999999999998</v>
       </c>
       <c r="BB12">
         <f t="shared" si="3"/>
-        <v>4.54</v>
+        <v>4.8879999999999999</v>
       </c>
       <c r="BC12">
         <f t="shared" si="3"/>
-        <v>4.6000000000000005</v>
+        <v>4.96</v>
       </c>
       <c r="BD12">
         <f t="shared" si="3"/>
-        <v>4.66</v>
+        <v>5.032</v>
       </c>
       <c r="BE12">
         <f t="shared" si="3"/>
-        <v>4.7200000000000006</v>
+        <v>5.1040000000000001</v>
       </c>
       <c r="BF12">
         <f t="shared" si="4"/>
-        <v>4.7799999999999994</v>
+        <v>5.1759999999999993</v>
       </c>
       <c r="BG12">
         <f t="shared" si="4"/>
-        <v>4.84</v>
+        <v>5.2479999999999993</v>
       </c>
       <c r="BH12">
         <f t="shared" si="4"/>
-        <v>4.8999999999999995</v>
+        <v>5.3199999999999994</v>
       </c>
       <c r="BI12">
         <f t="shared" si="4"/>
-        <v>4.96</v>
+        <v>5.3919999999999995</v>
       </c>
       <c r="BJ12">
         <f t="shared" si="4"/>
-        <v>5.0199999999999996</v>
+        <v>5.4639999999999995</v>
       </c>
       <c r="BK12">
         <f t="shared" si="4"/>
-        <v>5.08</v>
+        <v>5.5359999999999996</v>
       </c>
       <c r="BL12">
         <f t="shared" si="4"/>
-        <v>5.14</v>
+        <v>5.6079999999999997</v>
       </c>
       <c r="BM12">
         <f t="shared" si="4"/>
-        <v>5.2</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.3">
@@ -3303,243 +3303,243 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>1.69</v>
+        <v>1.468</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>1.7550000000000001</v>
+        <v>1.546</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>1.82</v>
+        <v>1.6240000000000001</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>1.885</v>
+        <v>1.702</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>1.9500000000000002</v>
+        <v>1.78</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>2.0150000000000001</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>2.08</v>
+        <v>1.9359999999999999</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>2.145</v>
+        <v>2.0140000000000002</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>2.21</v>
+        <v>2.0920000000000001</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>2.2749999999999999</v>
+        <v>2.17</v>
       </c>
       <c r="P13">
         <f t="shared" si="1"/>
-        <v>2.34</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>2.4050000000000002</v>
+        <v>2.3260000000000001</v>
       </c>
       <c r="R13">
         <f t="shared" si="1"/>
-        <v>2.4699999999999998</v>
+        <v>2.4039999999999999</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
-        <v>2.5350000000000001</v>
+        <v>2.4820000000000002</v>
       </c>
       <c r="T13">
         <f t="shared" si="1"/>
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="U13">
         <f t="shared" si="1"/>
-        <v>2.665</v>
+        <v>2.6379999999999999</v>
       </c>
       <c r="V13">
         <f t="shared" si="5"/>
-        <v>2.73</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="W13">
         <f t="shared" si="5"/>
-        <v>2.7949999999999999</v>
+        <v>2.794</v>
       </c>
       <c r="X13">
         <f t="shared" si="5"/>
-        <v>2.8600000000000003</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="Y13">
         <f t="shared" si="5"/>
-        <v>2.9249999999999998</v>
+        <v>2.95</v>
       </c>
       <c r="Z13">
         <f t="shared" si="5"/>
-        <v>2.99</v>
+        <v>3.028</v>
       </c>
       <c r="AA13">
         <f t="shared" si="5"/>
-        <v>3.0550000000000002</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="AB13">
         <f t="shared" si="5"/>
-        <v>3.12</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="AC13">
         <f t="shared" si="5"/>
-        <v>3.1849999999999996</v>
+        <v>3.262</v>
       </c>
       <c r="AD13">
         <f t="shared" si="5"/>
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="AE13">
         <f t="shared" si="5"/>
-        <v>3.3150000000000004</v>
+        <v>3.4180000000000001</v>
       </c>
       <c r="AF13">
         <f t="shared" si="5"/>
-        <v>3.38</v>
+        <v>3.496</v>
       </c>
       <c r="AG13">
         <f t="shared" si="5"/>
-        <v>3.4450000000000003</v>
+        <v>3.5739999999999998</v>
       </c>
       <c r="AH13">
         <f t="shared" si="5"/>
-        <v>3.51</v>
+        <v>3.6520000000000001</v>
       </c>
       <c r="AI13">
         <f t="shared" si="5"/>
-        <v>3.5750000000000002</v>
+        <v>3.73</v>
       </c>
       <c r="AJ13">
         <f t="shared" si="5"/>
-        <v>3.6399999999999997</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="AK13">
         <f t="shared" si="5"/>
-        <v>3.7050000000000001</v>
+        <v>3.8860000000000001</v>
       </c>
       <c r="AL13">
         <f t="shared" si="2"/>
-        <v>3.7700000000000005</v>
+        <v>3.964</v>
       </c>
       <c r="AM13">
         <f t="shared" si="2"/>
-        <v>3.835</v>
+        <v>4.0419999999999998</v>
       </c>
       <c r="AN13">
         <f t="shared" si="2"/>
-        <v>3.9000000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="AO13">
         <f t="shared" si="2"/>
-        <v>3.9649999999999999</v>
+        <v>4.1980000000000004</v>
       </c>
       <c r="AP13">
         <f t="shared" si="3"/>
-        <v>4.03</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="AQ13">
         <f t="shared" si="3"/>
-        <v>4.0949999999999998</v>
+        <v>4.3540000000000001</v>
       </c>
       <c r="AR13">
         <f t="shared" si="3"/>
-        <v>4.16</v>
+        <v>4.4320000000000004</v>
       </c>
       <c r="AS13">
         <f t="shared" si="3"/>
-        <v>4.2250000000000005</v>
+        <v>4.51</v>
       </c>
       <c r="AT13">
         <f t="shared" si="3"/>
-        <v>4.29</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="AU13">
         <f t="shared" si="3"/>
-        <v>4.3550000000000004</v>
+        <v>4.6660000000000004</v>
       </c>
       <c r="AV13">
         <f t="shared" si="3"/>
-        <v>4.42</v>
+        <v>4.7439999999999998</v>
       </c>
       <c r="AW13">
         <f t="shared" si="3"/>
-        <v>4.4850000000000003</v>
+        <v>4.8220000000000001</v>
       </c>
       <c r="AX13">
         <f t="shared" si="3"/>
-        <v>4.55</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AY13">
         <f t="shared" si="3"/>
-        <v>4.6150000000000002</v>
+        <v>4.9779999999999998</v>
       </c>
       <c r="AZ13">
         <f t="shared" si="3"/>
-        <v>4.68</v>
+        <v>5.056</v>
       </c>
       <c r="BA13">
         <f t="shared" si="3"/>
-        <v>4.7450000000000001</v>
+        <v>5.1340000000000003</v>
       </c>
       <c r="BB13">
         <f t="shared" si="3"/>
-        <v>4.8100000000000005</v>
+        <v>5.2119999999999997</v>
       </c>
       <c r="BC13">
         <f t="shared" si="3"/>
-        <v>4.875</v>
+        <v>5.29</v>
       </c>
       <c r="BD13">
         <f t="shared" si="3"/>
-        <v>4.9400000000000004</v>
+        <v>5.3680000000000003</v>
       </c>
       <c r="BE13">
         <f t="shared" si="3"/>
-        <v>5.0050000000000008</v>
+        <v>5.4460000000000006</v>
       </c>
       <c r="BF13">
         <f t="shared" si="4"/>
-        <v>5.0699999999999994</v>
+        <v>5.524</v>
       </c>
       <c r="BG13">
         <f t="shared" si="4"/>
-        <v>5.1349999999999998</v>
+        <v>5.6019999999999994</v>
       </c>
       <c r="BH13">
         <f t="shared" si="4"/>
-        <v>5.2</v>
+        <v>5.68</v>
       </c>
       <c r="BI13">
         <f t="shared" si="4"/>
-        <v>5.2649999999999997</v>
+        <v>5.758</v>
       </c>
       <c r="BJ13">
         <f t="shared" si="4"/>
-        <v>5.33</v>
+        <v>5.8360000000000003</v>
       </c>
       <c r="BK13">
         <f t="shared" si="4"/>
-        <v>5.3949999999999996</v>
+        <v>5.9139999999999997</v>
       </c>
       <c r="BL13">
         <f t="shared" si="4"/>
-        <v>5.46</v>
+        <v>5.992</v>
       </c>
       <c r="BM13">
         <f t="shared" si="4"/>
-        <v>5.5250000000000004</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.3">
@@ -3551,243 +3551,243 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1.72</v>
+        <v>1.504</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>1.79</v>
+        <v>1.5880000000000001</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>1.86</v>
+        <v>1.6720000000000002</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>1.9300000000000002</v>
+        <v>1.756</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>2.0700000000000003</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>2.14</v>
+        <v>2.008</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>2.21</v>
+        <v>2.0920000000000001</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>2.2800000000000002</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>2.35</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="P14">
         <f t="shared" si="1"/>
-        <v>2.42</v>
+        <v>2.3440000000000003</v>
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>2.4900000000000002</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="R14">
         <f t="shared" si="1"/>
-        <v>2.56</v>
+        <v>2.512</v>
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
-        <v>2.63</v>
+        <v>2.5960000000000001</v>
       </c>
       <c r="T14">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="U14">
         <f t="shared" si="1"/>
-        <v>2.77</v>
+        <v>2.7640000000000002</v>
       </c>
       <c r="V14">
         <f t="shared" si="5"/>
-        <v>2.84</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="W14">
         <f t="shared" si="5"/>
-        <v>2.91</v>
+        <v>2.9320000000000004</v>
       </c>
       <c r="X14">
         <f t="shared" si="5"/>
-        <v>2.98</v>
+        <v>3.016</v>
       </c>
       <c r="Y14">
         <f t="shared" si="5"/>
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Z14">
         <f t="shared" si="5"/>
-        <v>3.12</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="AA14">
         <f t="shared" si="5"/>
-        <v>3.1900000000000004</v>
+        <v>3.2680000000000002</v>
       </c>
       <c r="AB14">
         <f t="shared" si="5"/>
-        <v>3.2600000000000002</v>
+        <v>3.3520000000000003</v>
       </c>
       <c r="AC14">
         <f t="shared" si="5"/>
-        <v>3.33</v>
+        <v>3.4359999999999999</v>
       </c>
       <c r="AD14">
         <f t="shared" si="5"/>
-        <v>3.4000000000000004</v>
+        <v>3.52</v>
       </c>
       <c r="AE14">
         <f t="shared" si="5"/>
-        <v>3.4699999999999998</v>
+        <v>3.6040000000000001</v>
       </c>
       <c r="AF14">
         <f t="shared" si="5"/>
-        <v>3.54</v>
+        <v>3.6880000000000002</v>
       </c>
       <c r="AG14">
         <f t="shared" si="5"/>
-        <v>3.6100000000000003</v>
+        <v>3.7720000000000002</v>
       </c>
       <c r="AH14">
         <f t="shared" si="5"/>
-        <v>3.6800000000000006</v>
+        <v>3.8560000000000003</v>
       </c>
       <c r="AI14">
         <f t="shared" si="5"/>
-        <v>3.75</v>
+        <v>3.9400000000000004</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="5"/>
-        <v>3.8200000000000003</v>
+        <v>4.024</v>
       </c>
       <c r="AK14">
         <f t="shared" si="5"/>
-        <v>3.8899999999999997</v>
+        <v>4.1080000000000005</v>
       </c>
       <c r="AL14">
         <f t="shared" si="2"/>
-        <v>3.96</v>
+        <v>4.1920000000000002</v>
       </c>
       <c r="AM14">
         <f t="shared" si="2"/>
-        <v>4.03</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="AN14">
         <f t="shared" si="2"/>
-        <v>4.1000000000000005</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="AO14">
         <f t="shared" si="2"/>
-        <v>4.17</v>
+        <v>4.4440000000000008</v>
       </c>
       <c r="AP14">
         <f t="shared" si="3"/>
-        <v>4.24</v>
+        <v>4.5280000000000005</v>
       </c>
       <c r="AQ14">
         <f t="shared" si="3"/>
-        <v>4.3099999999999996</v>
+        <v>4.6120000000000001</v>
       </c>
       <c r="AR14">
         <f t="shared" si="3"/>
-        <v>4.38</v>
+        <v>4.6959999999999997</v>
       </c>
       <c r="AS14">
         <f t="shared" si="3"/>
-        <v>4.45</v>
+        <v>4.78</v>
       </c>
       <c r="AT14">
         <f t="shared" si="3"/>
-        <v>4.5200000000000005</v>
+        <v>4.8640000000000008</v>
       </c>
       <c r="AU14">
         <f t="shared" si="3"/>
-        <v>4.59</v>
+        <v>4.9480000000000004</v>
       </c>
       <c r="AV14">
         <f t="shared" si="3"/>
-        <v>4.66</v>
+        <v>5.032</v>
       </c>
       <c r="AW14">
         <f t="shared" si="3"/>
-        <v>4.7299999999999995</v>
+        <v>5.1159999999999997</v>
       </c>
       <c r="AX14">
         <f t="shared" si="3"/>
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AY14">
         <f t="shared" si="3"/>
-        <v>4.87</v>
+        <v>5.2840000000000007</v>
       </c>
       <c r="AZ14">
         <f t="shared" si="3"/>
-        <v>4.9400000000000004</v>
+        <v>5.3680000000000003</v>
       </c>
       <c r="BA14">
         <f t="shared" si="3"/>
-        <v>5.01</v>
+        <v>5.4520000000000008</v>
       </c>
       <c r="BB14">
         <f t="shared" si="3"/>
-        <v>5.08</v>
+        <v>5.5360000000000005</v>
       </c>
       <c r="BC14">
         <f t="shared" si="3"/>
-        <v>5.15</v>
+        <v>5.620000000000001</v>
       </c>
       <c r="BD14">
         <f t="shared" si="3"/>
-        <v>5.2200000000000006</v>
+        <v>5.7040000000000006</v>
       </c>
       <c r="BE14">
         <f t="shared" si="3"/>
-        <v>5.29</v>
+        <v>5.7880000000000011</v>
       </c>
       <c r="BF14">
         <f t="shared" si="4"/>
-        <v>5.3599999999999994</v>
+        <v>5.8719999999999999</v>
       </c>
       <c r="BG14">
         <f t="shared" si="4"/>
-        <v>5.43</v>
+        <v>5.9559999999999995</v>
       </c>
       <c r="BH14">
         <f t="shared" si="4"/>
-        <v>5.5</v>
+        <v>6.04</v>
       </c>
       <c r="BI14">
         <f t="shared" si="4"/>
-        <v>5.5699999999999994</v>
+        <v>6.1239999999999997</v>
       </c>
       <c r="BJ14">
         <f t="shared" si="4"/>
-        <v>5.64</v>
+        <v>6.2080000000000002</v>
       </c>
       <c r="BK14">
         <f t="shared" si="4"/>
-        <v>5.71</v>
+        <v>6.2920000000000007</v>
       </c>
       <c r="BL14">
         <f t="shared" si="4"/>
-        <v>5.78</v>
+        <v>6.3760000000000003</v>
       </c>
       <c r="BM14">
         <f t="shared" si="4"/>
-        <v>5.85</v>
+        <v>6.4600000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.3">
@@ -3799,59 +3799,59 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>1.8250000000000002</v>
+        <v>1.6300000000000001</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
+        <v>1.72</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1.81</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>2.0499999999999998</v>
-      </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>2.125</v>
+        <v>1.99</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>2.08</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>2.2750000000000004</v>
+        <v>2.17</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>2.35</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>2.4249999999999998</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>2.5750000000000002</v>
+        <v>2.5300000000000002</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>2.7250000000000001</v>
+        <v>2.71</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
@@ -3859,183 +3859,183 @@
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>2.875</v>
+        <v>2.8899999999999997</v>
       </c>
       <c r="V15">
         <f t="shared" si="5"/>
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="W15">
         <f t="shared" si="5"/>
-        <v>3.0250000000000004</v>
+        <v>3.0700000000000003</v>
       </c>
       <c r="X15">
         <f t="shared" si="5"/>
-        <v>3.0999999999999996</v>
+        <v>3.16</v>
       </c>
       <c r="Y15">
         <f t="shared" si="5"/>
-        <v>3.1749999999999998</v>
+        <v>3.25</v>
       </c>
       <c r="Z15">
         <f t="shared" si="5"/>
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="AA15">
         <f t="shared" si="5"/>
-        <v>3.3250000000000002</v>
+        <v>3.43</v>
       </c>
       <c r="AB15">
         <f t="shared" si="5"/>
-        <v>3.4000000000000004</v>
+        <v>3.5200000000000005</v>
       </c>
       <c r="AC15">
         <f t="shared" si="5"/>
-        <v>3.4749999999999996</v>
+        <v>3.61</v>
       </c>
       <c r="AD15">
         <f t="shared" si="5"/>
-        <v>3.55</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="AE15">
         <f t="shared" si="5"/>
-        <v>3.625</v>
+        <v>3.79</v>
       </c>
       <c r="AF15">
         <f t="shared" si="5"/>
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="AG15">
         <f t="shared" si="5"/>
-        <v>3.7750000000000004</v>
+        <v>3.97</v>
       </c>
       <c r="AH15">
         <f t="shared" si="5"/>
-        <v>3.8500000000000005</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="AI15">
         <f t="shared" si="5"/>
-        <v>3.9250000000000007</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>4.24</v>
       </c>
       <c r="AK15">
         <f t="shared" si="5"/>
-        <v>4.0750000000000002</v>
+        <v>4.33</v>
       </c>
       <c r="AL15">
         <f t="shared" si="2"/>
-        <v>4.1500000000000004</v>
+        <v>4.42</v>
       </c>
       <c r="AM15">
         <f t="shared" si="2"/>
-        <v>4.2250000000000005</v>
+        <v>4.51</v>
       </c>
       <c r="AN15">
         <f t="shared" si="2"/>
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AO15">
         <f t="shared" si="2"/>
-        <v>4.375</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="AP15">
         <f t="shared" si="3"/>
-        <v>4.45</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="AQ15">
         <f t="shared" si="3"/>
-        <v>4.5250000000000004</v>
+        <v>4.87</v>
       </c>
       <c r="AR15">
         <f t="shared" si="3"/>
-        <v>4.5999999999999996</v>
+        <v>4.96</v>
       </c>
       <c r="AS15">
         <f t="shared" si="3"/>
-        <v>4.6749999999999998</v>
+        <v>5.05</v>
       </c>
       <c r="AT15">
         <f t="shared" si="3"/>
-        <v>4.75</v>
+        <v>5.1400000000000006</v>
       </c>
       <c r="AU15">
         <f t="shared" si="3"/>
-        <v>4.8250000000000002</v>
+        <v>5.23</v>
       </c>
       <c r="AV15">
         <f t="shared" si="3"/>
-        <v>4.8999999999999995</v>
+        <v>5.32</v>
       </c>
       <c r="AW15">
         <f t="shared" si="3"/>
-        <v>4.9749999999999996</v>
+        <v>5.41</v>
       </c>
       <c r="AX15">
         <f t="shared" si="3"/>
-        <v>5.05</v>
+        <v>5.5</v>
       </c>
       <c r="AY15">
         <f t="shared" si="3"/>
-        <v>5.125</v>
+        <v>5.59</v>
       </c>
       <c r="AZ15">
         <f t="shared" si="3"/>
-        <v>5.2</v>
+        <v>5.68</v>
       </c>
       <c r="BA15">
         <f t="shared" si="3"/>
-        <v>5.2750000000000004</v>
+        <v>5.7700000000000005</v>
       </c>
       <c r="BB15">
         <f t="shared" si="3"/>
-        <v>5.3500000000000005</v>
+        <v>5.86</v>
       </c>
       <c r="BC15">
         <f t="shared" si="3"/>
-        <v>5.4249999999999998</v>
+        <v>5.95</v>
       </c>
       <c r="BD15">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>6.0400000000000009</v>
       </c>
       <c r="BE15">
         <f t="shared" si="3"/>
-        <v>5.5750000000000002</v>
+        <v>6.1300000000000008</v>
       </c>
       <c r="BF15">
         <f t="shared" si="4"/>
-        <v>5.6499999999999995</v>
+        <v>6.22</v>
       </c>
       <c r="BG15">
         <f t="shared" si="4"/>
-        <v>5.7249999999999996</v>
+        <v>6.31</v>
       </c>
       <c r="BH15">
         <f t="shared" si="4"/>
-        <v>5.8</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="BI15">
         <f t="shared" si="4"/>
-        <v>5.875</v>
+        <v>6.49</v>
       </c>
       <c r="BJ15">
         <f t="shared" si="4"/>
-        <v>5.95</v>
+        <v>6.58</v>
       </c>
       <c r="BK15">
         <f t="shared" si="4"/>
-        <v>6.0249999999999995</v>
+        <v>6.67</v>
       </c>
       <c r="BL15">
         <f t="shared" si="4"/>
-        <v>6.1</v>
+        <v>6.76</v>
       </c>
       <c r="BM15">
         <f t="shared" si="4"/>
-        <v>6.1749999999999998</v>
+        <v>6.8500000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.3">
@@ -4047,243 +4047,243 @@
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>1.78</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>1.86</v>
+        <v>1.6720000000000002</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>1.94</v>
+        <v>1.768</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>2.02</v>
+        <v>1.8639999999999999</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="K16">
         <f t="shared" si="1"/>
-        <v>2.1800000000000002</v>
+        <v>2.056</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>2.2599999999999998</v>
+        <v>2.1520000000000001</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>2.34</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>2.42</v>
+        <v>2.3440000000000003</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="P16">
         <f t="shared" si="1"/>
-        <v>2.58</v>
+        <v>2.536</v>
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>2.66</v>
+        <v>2.6320000000000001</v>
       </c>
       <c r="R16">
         <f t="shared" si="1"/>
-        <v>2.74</v>
+        <v>2.7279999999999998</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
-        <v>2.8200000000000003</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="T16">
         <f t="shared" si="1"/>
-        <v>2.9000000000000004</v>
+        <v>2.92</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
-        <v>2.98</v>
+        <v>3.016</v>
       </c>
       <c r="V16">
         <f t="shared" si="5"/>
-        <v>3.06</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="W16">
         <f t="shared" si="5"/>
-        <v>3.14</v>
+        <v>3.2080000000000002</v>
       </c>
       <c r="X16">
         <f t="shared" si="5"/>
-        <v>3.2199999999999998</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="Y16">
         <f t="shared" si="5"/>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z16">
         <f t="shared" si="5"/>
-        <v>3.38</v>
+        <v>3.496</v>
       </c>
       <c r="AA16">
         <f t="shared" si="5"/>
-        <v>3.46</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="AB16">
         <f t="shared" si="5"/>
-        <v>3.54</v>
+        <v>3.6880000000000002</v>
       </c>
       <c r="AC16">
         <f t="shared" si="5"/>
-        <v>3.62</v>
+        <v>3.7839999999999998</v>
       </c>
       <c r="AD16">
         <f t="shared" si="5"/>
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="AE16">
         <f t="shared" si="5"/>
-        <v>3.7800000000000002</v>
+        <v>3.976</v>
       </c>
       <c r="AF16">
         <f t="shared" si="5"/>
-        <v>3.8600000000000003</v>
+        <v>4.0720000000000001</v>
       </c>
       <c r="AG16">
         <f t="shared" si="5"/>
-        <v>3.9400000000000004</v>
+        <v>4.1680000000000001</v>
       </c>
       <c r="AH16">
         <f t="shared" si="5"/>
-        <v>4.0200000000000005</v>
+        <v>4.2640000000000002</v>
       </c>
       <c r="AI16">
         <f t="shared" si="5"/>
-        <v>4.1000000000000005</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="5"/>
-        <v>4.18</v>
+        <v>4.4559999999999995</v>
       </c>
       <c r="AK16">
         <f t="shared" si="5"/>
-        <v>4.26</v>
+        <v>4.5519999999999996</v>
       </c>
       <c r="AL16">
         <f t="shared" si="2"/>
-        <v>4.34</v>
+        <v>4.6479999999999997</v>
       </c>
       <c r="AM16">
         <f t="shared" si="2"/>
-        <v>4.42</v>
+        <v>4.7439999999999998</v>
       </c>
       <c r="AN16">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>4.84</v>
       </c>
       <c r="AO16">
         <f t="shared" si="2"/>
-        <v>4.58</v>
+        <v>4.9359999999999999</v>
       </c>
       <c r="AP16">
         <f t="shared" si="3"/>
-        <v>4.66</v>
+        <v>5.032</v>
       </c>
       <c r="AQ16">
         <f t="shared" si="3"/>
-        <v>4.74</v>
+        <v>5.1280000000000001</v>
       </c>
       <c r="AR16">
         <f t="shared" si="3"/>
-        <v>4.82</v>
+        <v>5.2240000000000002</v>
       </c>
       <c r="AS16">
         <f t="shared" si="3"/>
-        <v>4.9000000000000004</v>
+        <v>5.32</v>
       </c>
       <c r="AT16">
         <f t="shared" si="3"/>
-        <v>4.9800000000000004</v>
+        <v>5.4160000000000004</v>
       </c>
       <c r="AU16">
         <f t="shared" si="3"/>
-        <v>5.0600000000000005</v>
+        <v>5.5120000000000005</v>
       </c>
       <c r="AV16">
         <f t="shared" si="3"/>
-        <v>5.14</v>
+        <v>5.6079999999999997</v>
       </c>
       <c r="AW16">
         <f t="shared" si="3"/>
-        <v>5.22</v>
+        <v>5.7039999999999997</v>
       </c>
       <c r="AX16">
         <f t="shared" si="3"/>
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AY16">
         <f t="shared" si="3"/>
-        <v>5.38</v>
+        <v>5.8959999999999999</v>
       </c>
       <c r="AZ16">
         <f t="shared" si="3"/>
-        <v>5.46</v>
+        <v>5.992</v>
       </c>
       <c r="BA16">
         <f t="shared" si="3"/>
-        <v>5.54</v>
+        <v>6.0880000000000001</v>
       </c>
       <c r="BB16">
         <f t="shared" si="3"/>
-        <v>5.62</v>
+        <v>6.1840000000000002</v>
       </c>
       <c r="BC16">
         <f t="shared" si="3"/>
-        <v>5.7</v>
+        <v>6.28</v>
       </c>
       <c r="BD16">
         <f t="shared" si="3"/>
-        <v>5.78</v>
+        <v>6.3760000000000003</v>
       </c>
       <c r="BE16">
         <f t="shared" si="3"/>
-        <v>5.86</v>
+        <v>6.4720000000000004</v>
       </c>
       <c r="BF16">
         <f t="shared" si="4"/>
-        <v>5.9399999999999995</v>
+        <v>6.5679999999999996</v>
       </c>
       <c r="BG16">
         <f t="shared" si="4"/>
-        <v>6.02</v>
+        <v>6.6639999999999997</v>
       </c>
       <c r="BH16">
         <f t="shared" si="4"/>
-        <v>6.1</v>
+        <v>6.76</v>
       </c>
       <c r="BI16">
         <f t="shared" si="4"/>
-        <v>6.18</v>
+        <v>6.8559999999999999</v>
       </c>
       <c r="BJ16">
         <f t="shared" si="4"/>
-        <v>6.26</v>
+        <v>6.952</v>
       </c>
       <c r="BK16">
         <f t="shared" si="4"/>
-        <v>6.34</v>
+        <v>7.048</v>
       </c>
       <c r="BL16">
         <f t="shared" si="4"/>
-        <v>6.42</v>
+        <v>7.1440000000000001</v>
       </c>
       <c r="BM16">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="17" spans="4:65" x14ac:dyDescent="0.3">
@@ -4295,243 +4295,243 @@
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>1.81</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>1.895</v>
+        <v>1.714</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>1.98</v>
+        <v>1.8159999999999998</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>2.0649999999999999</v>
+        <v>1.9179999999999999</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>2.1500000000000004</v>
+        <v>2.02</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>2.2350000000000003</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>2.3200000000000003</v>
+        <v>2.2240000000000002</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>2.4050000000000002</v>
+        <v>2.3259999999999996</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>2.4900000000000002</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>2.5750000000000002</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="P17">
         <f t="shared" si="1"/>
-        <v>2.66</v>
+        <v>2.6319999999999997</v>
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>2.7450000000000001</v>
+        <v>2.734</v>
       </c>
       <c r="R17">
         <f t="shared" si="1"/>
-        <v>2.83</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
-        <v>2.915</v>
+        <v>2.9379999999999997</v>
       </c>
       <c r="T17">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="U17">
         <f t="shared" si="1"/>
-        <v>3.085</v>
+        <v>3.1419999999999999</v>
       </c>
       <c r="V17">
         <f t="shared" si="5"/>
-        <v>3.17</v>
+        <v>3.2439999999999998</v>
       </c>
       <c r="W17">
         <f t="shared" si="5"/>
-        <v>3.2549999999999999</v>
+        <v>3.3460000000000001</v>
       </c>
       <c r="X17">
         <f t="shared" si="5"/>
-        <v>3.34</v>
+        <v>3.448</v>
       </c>
       <c r="Y17">
         <f t="shared" si="5"/>
-        <v>3.4249999999999998</v>
+        <v>3.55</v>
       </c>
       <c r="Z17">
         <f t="shared" si="5"/>
-        <v>3.51</v>
+        <v>3.6519999999999997</v>
       </c>
       <c r="AA17">
         <f t="shared" si="5"/>
-        <v>3.5949999999999998</v>
+        <v>3.754</v>
       </c>
       <c r="AB17">
         <f t="shared" si="5"/>
-        <v>3.6800000000000006</v>
+        <v>3.8559999999999999</v>
       </c>
       <c r="AC17">
         <f t="shared" si="5"/>
-        <v>3.7649999999999997</v>
+        <v>3.9579999999999997</v>
       </c>
       <c r="AD17">
         <f t="shared" si="5"/>
-        <v>3.8499999999999996</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="AE17">
         <f t="shared" si="5"/>
-        <v>3.9349999999999996</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="AF17">
         <f t="shared" si="5"/>
-        <v>4.0200000000000005</v>
+        <v>4.2639999999999993</v>
       </c>
       <c r="AG17">
         <f t="shared" si="5"/>
-        <v>4.1050000000000004</v>
+        <v>4.3659999999999997</v>
       </c>
       <c r="AH17">
         <f t="shared" si="5"/>
-        <v>4.1900000000000004</v>
+        <v>4.468</v>
       </c>
       <c r="AI17">
         <f t="shared" si="5"/>
-        <v>4.2750000000000004</v>
+        <v>4.57</v>
       </c>
       <c r="AJ17">
         <f t="shared" si="5"/>
-        <v>4.3600000000000003</v>
+        <v>4.6719999999999997</v>
       </c>
       <c r="AK17">
         <f t="shared" si="5"/>
-        <v>4.4450000000000003</v>
+        <v>4.7739999999999991</v>
       </c>
       <c r="AL17">
         <f t="shared" si="2"/>
-        <v>4.53</v>
+        <v>4.8759999999999994</v>
       </c>
       <c r="AM17">
         <f t="shared" si="2"/>
-        <v>4.6150000000000002</v>
+        <v>4.9779999999999998</v>
       </c>
       <c r="AN17">
         <f t="shared" si="2"/>
-        <v>4.7</v>
+        <v>5.08</v>
       </c>
       <c r="AO17">
         <f t="shared" si="2"/>
-        <v>4.7850000000000001</v>
+        <v>5.1820000000000004</v>
       </c>
       <c r="AP17">
         <f t="shared" si="3"/>
-        <v>4.87</v>
+        <v>5.2839999999999998</v>
       </c>
       <c r="AQ17">
         <f t="shared" si="3"/>
-        <v>4.9550000000000001</v>
+        <v>5.3859999999999992</v>
       </c>
       <c r="AR17">
         <f t="shared" si="3"/>
-        <v>5.04</v>
+        <v>5.4879999999999995</v>
       </c>
       <c r="AS17">
         <f t="shared" si="3"/>
-        <v>5.125</v>
+        <v>5.59</v>
       </c>
       <c r="AT17">
         <f t="shared" si="3"/>
-        <v>5.21</v>
+        <v>5.6920000000000002</v>
       </c>
       <c r="AU17">
         <f t="shared" si="3"/>
-        <v>5.2949999999999999</v>
+        <v>5.7939999999999996</v>
       </c>
       <c r="AV17">
         <f t="shared" si="3"/>
-        <v>5.38</v>
+        <v>5.8959999999999999</v>
       </c>
       <c r="AW17">
         <f t="shared" si="3"/>
-        <v>5.4649999999999999</v>
+        <v>5.9979999999999993</v>
       </c>
       <c r="AX17">
         <f t="shared" si="3"/>
-        <v>5.55</v>
+        <v>6.1</v>
       </c>
       <c r="AY17">
         <f t="shared" si="3"/>
-        <v>5.6349999999999998</v>
+        <v>6.202</v>
       </c>
       <c r="AZ17">
         <f t="shared" si="3"/>
-        <v>5.72</v>
+        <v>6.3039999999999994</v>
       </c>
       <c r="BA17">
         <f t="shared" si="3"/>
-        <v>5.8049999999999997</v>
+        <v>6.4059999999999997</v>
       </c>
       <c r="BB17">
         <f t="shared" si="3"/>
-        <v>5.89</v>
+        <v>6.508</v>
       </c>
       <c r="BC17">
         <f t="shared" si="3"/>
-        <v>5.9750000000000005</v>
+        <v>6.61</v>
       </c>
       <c r="BD17">
         <f t="shared" si="3"/>
-        <v>6.0600000000000005</v>
+        <v>6.7119999999999997</v>
       </c>
       <c r="BE17">
         <f t="shared" si="3"/>
-        <v>6.1450000000000005</v>
+        <v>6.8140000000000001</v>
       </c>
       <c r="BF17">
         <f t="shared" si="4"/>
-        <v>6.2299999999999995</v>
+        <v>6.9159999999999995</v>
       </c>
       <c r="BG17">
         <f t="shared" si="4"/>
-        <v>6.3149999999999995</v>
+        <v>7.0179999999999989</v>
       </c>
       <c r="BH17">
         <f t="shared" si="4"/>
-        <v>6.3999999999999995</v>
+        <v>7.1199999999999992</v>
       </c>
       <c r="BI17">
         <f t="shared" si="4"/>
-        <v>6.4849999999999994</v>
+        <v>7.2219999999999995</v>
       </c>
       <c r="BJ17">
         <f t="shared" si="4"/>
-        <v>6.5699999999999994</v>
+        <v>7.3239999999999998</v>
       </c>
       <c r="BK17">
         <f t="shared" si="4"/>
-        <v>6.6550000000000002</v>
+        <v>7.4259999999999993</v>
       </c>
       <c r="BL17">
         <f t="shared" si="4"/>
-        <v>6.74</v>
+        <v>7.5279999999999996</v>
       </c>
       <c r="BM17">
         <f t="shared" si="4"/>
-        <v>6.8250000000000002</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="18" spans="4:65" x14ac:dyDescent="0.3">
@@ -4543,243 +4543,243 @@
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1.84</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>1.9300000000000002</v>
+        <v>1.756</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>2.02</v>
+        <v>1.8639999999999999</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>2.11</v>
+        <v>1.972</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>2.08</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>2.29</v>
+        <v>2.1879999999999997</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>2.38</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>2.4699999999999998</v>
+        <v>2.4039999999999999</v>
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>2.5600000000000005</v>
+        <v>2.512</v>
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
-        <v>2.74</v>
+        <v>2.7279999999999998</v>
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>2.83</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="R18">
         <f t="shared" si="1"/>
-        <v>2.92</v>
+        <v>2.944</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
-        <v>3.01</v>
+        <v>3.0519999999999996</v>
       </c>
       <c r="T18">
         <f t="shared" si="1"/>
-        <v>3.1</v>
+        <v>3.1599999999999997</v>
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>3.19</v>
+        <v>3.2679999999999998</v>
       </c>
       <c r="V18">
         <f t="shared" si="5"/>
-        <v>3.2800000000000002</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="W18">
         <f t="shared" si="5"/>
-        <v>3.37</v>
+        <v>3.484</v>
       </c>
       <c r="X18">
         <f t="shared" si="5"/>
-        <v>3.46</v>
+        <v>3.5919999999999996</v>
       </c>
       <c r="Y18">
         <f t="shared" si="5"/>
-        <v>3.55</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="Z18">
         <f t="shared" si="5"/>
-        <v>3.6399999999999997</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="AA18">
         <f t="shared" si="5"/>
-        <v>3.7300000000000004</v>
+        <v>3.9159999999999999</v>
       </c>
       <c r="AB18">
         <f t="shared" si="5"/>
-        <v>3.8200000000000003</v>
+        <v>4.024</v>
       </c>
       <c r="AC18">
         <f t="shared" si="5"/>
-        <v>3.91</v>
+        <v>4.1319999999999997</v>
       </c>
       <c r="AD18">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>4.24</v>
       </c>
       <c r="AE18">
         <f t="shared" si="5"/>
-        <v>4.09</v>
+        <v>4.3479999999999999</v>
       </c>
       <c r="AF18">
         <f t="shared" si="5"/>
-        <v>4.18</v>
+        <v>4.4559999999999995</v>
       </c>
       <c r="AG18">
         <f t="shared" si="5"/>
-        <v>4.2700000000000005</v>
+        <v>4.5640000000000001</v>
       </c>
       <c r="AH18">
         <f t="shared" si="5"/>
-        <v>4.3600000000000003</v>
+        <v>4.6719999999999997</v>
       </c>
       <c r="AI18">
         <f t="shared" si="5"/>
-        <v>4.45</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="5"/>
-        <v>4.54</v>
+        <v>4.8879999999999999</v>
       </c>
       <c r="AK18">
         <f t="shared" si="5"/>
-        <v>4.63</v>
+        <v>4.9959999999999996</v>
       </c>
       <c r="AL18">
         <f t="shared" si="2"/>
-        <v>4.72</v>
+        <v>5.1039999999999992</v>
       </c>
       <c r="AM18">
         <f t="shared" si="2"/>
-        <v>4.8100000000000005</v>
+        <v>5.2119999999999997</v>
       </c>
       <c r="AN18">
         <f t="shared" si="2"/>
-        <v>4.9000000000000004</v>
+        <v>5.3199999999999994</v>
       </c>
       <c r="AO18">
         <f t="shared" si="2"/>
-        <v>4.99</v>
+        <v>5.4279999999999999</v>
       </c>
       <c r="AP18">
         <f t="shared" si="3"/>
-        <v>5.08</v>
+        <v>5.5359999999999996</v>
       </c>
       <c r="AQ18">
         <f t="shared" si="3"/>
-        <v>5.17</v>
+        <v>5.6439999999999992</v>
       </c>
       <c r="AR18">
         <f t="shared" si="3"/>
-        <v>5.26</v>
+        <v>5.7519999999999998</v>
       </c>
       <c r="AS18">
         <f t="shared" si="3"/>
-        <v>5.35</v>
+        <v>5.8599999999999994</v>
       </c>
       <c r="AT18">
         <f t="shared" si="3"/>
-        <v>5.44</v>
+        <v>5.968</v>
       </c>
       <c r="AU18">
         <f t="shared" si="3"/>
-        <v>5.53</v>
+        <v>6.0759999999999996</v>
       </c>
       <c r="AV18">
         <f t="shared" si="3"/>
-        <v>5.62</v>
+        <v>6.1839999999999993</v>
       </c>
       <c r="AW18">
         <f t="shared" si="3"/>
-        <v>5.71</v>
+        <v>6.2919999999999998</v>
       </c>
       <c r="AX18">
         <f t="shared" si="3"/>
-        <v>5.8</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AY18">
         <f t="shared" si="3"/>
-        <v>5.89</v>
+        <v>6.5079999999999991</v>
       </c>
       <c r="AZ18">
         <f t="shared" si="3"/>
-        <v>5.9799999999999995</v>
+        <v>6.6159999999999997</v>
       </c>
       <c r="BA18">
         <f t="shared" si="3"/>
-        <v>6.07</v>
+        <v>6.7239999999999993</v>
       </c>
       <c r="BB18">
         <f t="shared" si="3"/>
-        <v>6.16</v>
+        <v>6.8319999999999999</v>
       </c>
       <c r="BC18">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>6.9399999999999995</v>
       </c>
       <c r="BD18">
         <f t="shared" si="3"/>
-        <v>6.3400000000000007</v>
+        <v>7.048</v>
       </c>
       <c r="BE18">
         <f t="shared" si="3"/>
-        <v>6.4300000000000006</v>
+        <v>7.1559999999999997</v>
       </c>
       <c r="BF18">
         <f t="shared" si="4"/>
-        <v>6.52</v>
+        <v>7.2639999999999993</v>
       </c>
       <c r="BG18">
         <f t="shared" si="4"/>
-        <v>6.6099999999999994</v>
+        <v>7.371999999999999</v>
       </c>
       <c r="BH18">
         <f t="shared" si="4"/>
-        <v>6.6999999999999993</v>
+        <v>7.4799999999999995</v>
       </c>
       <c r="BI18">
         <f t="shared" si="4"/>
-        <v>6.79</v>
+        <v>7.5879999999999992</v>
       </c>
       <c r="BJ18">
         <f t="shared" si="4"/>
-        <v>6.88</v>
+        <v>7.6959999999999997</v>
       </c>
       <c r="BK18">
         <f t="shared" si="4"/>
-        <v>6.97</v>
+        <v>7.8039999999999994</v>
       </c>
       <c r="BL18">
         <f t="shared" si="4"/>
-        <v>7.06</v>
+        <v>7.911999999999999</v>
       </c>
       <c r="BM18">
         <f t="shared" si="4"/>
-        <v>7.15</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="19" spans="4:65" x14ac:dyDescent="0.3">
@@ -4791,243 +4791,243 @@
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>1.87</v>
+        <v>1.6839999999999999</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>1.9650000000000001</v>
+        <v>1.798</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>2.06</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>2.1550000000000002</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>2.3449999999999998</v>
+        <v>2.254</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>2.44</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>2.5350000000000001</v>
+        <v>2.4820000000000002</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>2.63</v>
+        <v>2.5960000000000001</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>2.7250000000000001</v>
+        <v>2.71</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>2.8200000000000003</v>
+        <v>2.8239999999999998</v>
       </c>
       <c r="Q19">
         <f t="shared" si="1"/>
-        <v>2.915</v>
+        <v>2.9380000000000002</v>
       </c>
       <c r="R19">
         <f t="shared" si="1"/>
-        <v>3.01</v>
+        <v>3.052</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>3.105</v>
+        <v>3.1659999999999999</v>
       </c>
       <c r="T19">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>3.2800000000000002</v>
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
-        <v>3.2949999999999999</v>
+        <v>3.3940000000000001</v>
       </c>
       <c r="V19">
         <f t="shared" si="5"/>
-        <v>3.3899999999999997</v>
+        <v>3.508</v>
       </c>
       <c r="W19">
         <f t="shared" si="5"/>
-        <v>3.4850000000000003</v>
+        <v>3.6220000000000003</v>
       </c>
       <c r="X19">
         <f t="shared" si="5"/>
-        <v>3.58</v>
+        <v>3.7359999999999998</v>
       </c>
       <c r="Y19">
         <f t="shared" si="5"/>
-        <v>3.6749999999999998</v>
+        <v>3.85</v>
       </c>
       <c r="Z19">
         <f t="shared" si="5"/>
-        <v>3.7700000000000005</v>
+        <v>3.9640000000000004</v>
       </c>
       <c r="AA19">
         <f t="shared" si="5"/>
-        <v>3.8650000000000002</v>
+        <v>4.0780000000000003</v>
       </c>
       <c r="AB19">
         <f t="shared" si="5"/>
-        <v>3.96</v>
+        <v>4.1920000000000002</v>
       </c>
       <c r="AC19">
         <f t="shared" si="5"/>
-        <v>4.0549999999999997</v>
+        <v>4.306</v>
       </c>
       <c r="AD19">
         <f t="shared" si="5"/>
-        <v>4.1500000000000004</v>
+        <v>4.42</v>
       </c>
       <c r="AE19">
         <f t="shared" si="5"/>
-        <v>4.2450000000000001</v>
+        <v>4.5340000000000007</v>
       </c>
       <c r="AF19">
         <f t="shared" si="5"/>
-        <v>4.34</v>
+        <v>4.6479999999999997</v>
       </c>
       <c r="AG19">
         <f t="shared" si="5"/>
-        <v>4.4350000000000005</v>
+        <v>4.7620000000000005</v>
       </c>
       <c r="AH19">
         <f t="shared" si="5"/>
-        <v>4.53</v>
+        <v>4.8760000000000003</v>
       </c>
       <c r="AI19">
         <f t="shared" si="5"/>
-        <v>4.625</v>
+        <v>4.99</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="5"/>
-        <v>4.72</v>
+        <v>5.1040000000000001</v>
       </c>
       <c r="AK19">
         <f t="shared" si="5"/>
-        <v>4.8150000000000004</v>
+        <v>5.218</v>
       </c>
       <c r="AL19">
         <f t="shared" si="2"/>
-        <v>4.91</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="AM19">
         <f t="shared" si="2"/>
-        <v>5.0049999999999999</v>
+        <v>5.4460000000000006</v>
       </c>
       <c r="AN19">
         <f t="shared" si="2"/>
-        <v>5.1000000000000005</v>
+        <v>5.5600000000000005</v>
       </c>
       <c r="AO19">
         <f t="shared" si="2"/>
-        <v>5.1950000000000003</v>
+        <v>5.6740000000000004</v>
       </c>
       <c r="AP19">
         <f t="shared" si="3"/>
-        <v>5.29</v>
+        <v>5.7880000000000003</v>
       </c>
       <c r="AQ19">
         <f t="shared" si="3"/>
-        <v>5.3849999999999998</v>
+        <v>5.9020000000000001</v>
       </c>
       <c r="AR19">
         <f t="shared" si="3"/>
-        <v>5.4799999999999995</v>
+        <v>6.016</v>
       </c>
       <c r="AS19">
         <f t="shared" si="3"/>
-        <v>5.5750000000000002</v>
+        <v>6.13</v>
       </c>
       <c r="AT19">
         <f t="shared" si="3"/>
-        <v>5.67</v>
+        <v>6.2440000000000007</v>
       </c>
       <c r="AU19">
         <f t="shared" si="3"/>
-        <v>5.7649999999999997</v>
+        <v>6.3580000000000005</v>
       </c>
       <c r="AV19">
         <f t="shared" si="3"/>
-        <v>5.8599999999999994</v>
+        <v>6.4719999999999995</v>
       </c>
       <c r="AW19">
         <f t="shared" si="3"/>
-        <v>5.9550000000000001</v>
+        <v>6.5860000000000003</v>
       </c>
       <c r="AX19">
         <f t="shared" si="3"/>
-        <v>6.05</v>
+        <v>6.7</v>
       </c>
       <c r="AY19">
         <f t="shared" si="3"/>
-        <v>6.1449999999999996</v>
+        <v>6.8140000000000001</v>
       </c>
       <c r="AZ19">
         <f t="shared" si="3"/>
-        <v>6.24</v>
+        <v>6.9280000000000008</v>
       </c>
       <c r="BA19">
         <f t="shared" si="3"/>
-        <v>6.335</v>
+        <v>7.0420000000000007</v>
       </c>
       <c r="BB19">
         <f t="shared" si="3"/>
-        <v>6.4300000000000006</v>
+        <v>7.1560000000000006</v>
       </c>
       <c r="BC19">
         <f t="shared" si="3"/>
-        <v>6.5250000000000004</v>
+        <v>7.2700000000000005</v>
       </c>
       <c r="BD19">
         <f t="shared" si="3"/>
-        <v>6.62</v>
+        <v>7.3840000000000012</v>
       </c>
       <c r="BE19">
         <f t="shared" si="3"/>
-        <v>6.7150000000000007</v>
+        <v>7.4980000000000011</v>
       </c>
       <c r="BF19">
         <f t="shared" si="4"/>
-        <v>6.81</v>
+        <v>7.6120000000000001</v>
       </c>
       <c r="BG19">
         <f t="shared" si="4"/>
-        <v>6.9049999999999994</v>
+        <v>7.726</v>
       </c>
       <c r="BH19">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>7.84</v>
       </c>
       <c r="BI19">
         <f t="shared" si="4"/>
-        <v>7.0949999999999998</v>
+        <v>7.9539999999999997</v>
       </c>
       <c r="BJ19">
         <f t="shared" si="4"/>
-        <v>7.1899999999999995</v>
+        <v>8.0680000000000014</v>
       </c>
       <c r="BK19">
         <f t="shared" si="4"/>
-        <v>7.2850000000000001</v>
+        <v>8.1820000000000004</v>
       </c>
       <c r="BL19">
         <f t="shared" si="4"/>
-        <v>7.38</v>
+        <v>8.2959999999999994</v>
       </c>
       <c r="BM19">
         <f t="shared" si="4"/>
-        <v>7.4749999999999996</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="20" spans="4:65" x14ac:dyDescent="0.3">
@@ -5039,39 +5039,39 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
+        <v>2.08</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>2.2999999999999998</v>
-      </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>2.4000000000000004</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
@@ -5079,203 +5079,203 @@
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>2.9000000000000004</v>
+        <v>2.92</v>
       </c>
       <c r="Q20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="R20">
         <f t="shared" si="1"/>
-        <v>3.0999999999999996</v>
+        <v>3.16</v>
       </c>
       <c r="S20">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>3.2800000000000002</v>
       </c>
       <c r="T20">
         <f t="shared" si="1"/>
-        <v>3.3</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
-        <v>3.4000000000000004</v>
+        <v>3.52</v>
       </c>
       <c r="V20">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="W20">
         <f t="shared" si="5"/>
-        <v>3.6000000000000005</v>
+        <v>3.7600000000000002</v>
       </c>
       <c r="X20">
         <f t="shared" si="5"/>
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="Y20">
         <f t="shared" si="5"/>
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Z20">
         <f t="shared" si="5"/>
-        <v>3.9000000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="AA20">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>4.24</v>
       </c>
       <c r="AB20">
         <f t="shared" si="5"/>
-        <v>4.1000000000000005</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="AC20">
         <f t="shared" si="5"/>
-        <v>4.2</v>
+        <v>4.4799999999999995</v>
       </c>
       <c r="AD20">
         <f t="shared" si="5"/>
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AE20">
         <f t="shared" si="5"/>
-        <v>4.4000000000000004</v>
+        <v>4.72</v>
       </c>
       <c r="AF20">
         <f t="shared" si="5"/>
-        <v>4.5</v>
+        <v>4.84</v>
       </c>
       <c r="AG20">
         <f t="shared" si="5"/>
-        <v>4.6000000000000005</v>
+        <v>4.96</v>
       </c>
       <c r="AH20">
         <f t="shared" si="5"/>
-        <v>4.7</v>
+        <v>5.08</v>
       </c>
       <c r="AI20">
         <f t="shared" si="5"/>
-        <v>4.8000000000000007</v>
+        <v>5.2</v>
       </c>
       <c r="AJ20">
         <f t="shared" si="5"/>
-        <v>4.8999999999999995</v>
+        <v>5.32</v>
       </c>
       <c r="AK20">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>5.4399999999999995</v>
       </c>
       <c r="AL20">
         <f t="shared" si="2"/>
-        <v>5.0999999999999996</v>
+        <v>5.5600000000000005</v>
       </c>
       <c r="AM20">
         <f t="shared" si="2"/>
-        <v>5.2</v>
+        <v>5.68</v>
       </c>
       <c r="AN20">
         <f t="shared" si="2"/>
-        <v>5.3</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="AO20">
         <f t="shared" si="2"/>
-        <v>5.4</v>
+        <v>5.92</v>
       </c>
       <c r="AP20">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>6.04</v>
       </c>
       <c r="AQ20">
         <f t="shared" si="3"/>
-        <v>5.6</v>
+        <v>6.16</v>
       </c>
       <c r="AR20">
         <f t="shared" si="3"/>
-        <v>5.7</v>
+        <v>6.28</v>
       </c>
       <c r="AS20">
         <f t="shared" si="3"/>
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AT20">
         <f t="shared" si="3"/>
-        <v>5.9</v>
+        <v>6.5200000000000005</v>
       </c>
       <c r="AU20">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>6.6400000000000006</v>
       </c>
       <c r="AV20">
         <f t="shared" si="3"/>
-        <v>6.1</v>
+        <v>6.76</v>
       </c>
       <c r="AW20">
         <f t="shared" si="3"/>
-        <v>6.2</v>
+        <v>6.88</v>
       </c>
       <c r="AX20">
         <f t="shared" si="3"/>
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AY20">
         <f t="shared" si="3"/>
-        <v>6.3999999999999995</v>
+        <v>7.12</v>
       </c>
       <c r="AZ20">
         <f t="shared" si="3"/>
-        <v>6.5</v>
+        <v>7.24</v>
       </c>
       <c r="BA20">
         <f t="shared" si="3"/>
-        <v>6.6000000000000005</v>
+        <v>7.36</v>
       </c>
       <c r="BB20">
         <f t="shared" si="3"/>
-        <v>6.7</v>
+        <v>7.48</v>
       </c>
       <c r="BC20">
         <f t="shared" si="3"/>
-        <v>6.8</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="BD20">
         <f t="shared" si="3"/>
-        <v>6.9</v>
+        <v>7.7200000000000006</v>
       </c>
       <c r="BE20">
         <f t="shared" si="3"/>
-        <v>7.0000000000000009</v>
+        <v>7.8400000000000007</v>
       </c>
       <c r="BF20">
         <f t="shared" si="4"/>
-        <v>7.1</v>
+        <v>7.9599999999999991</v>
       </c>
       <c r="BG20">
         <f t="shared" si="4"/>
-        <v>7.1999999999999993</v>
+        <v>8.08</v>
       </c>
       <c r="BH20">
         <f t="shared" si="4"/>
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="BI20">
         <f t="shared" si="4"/>
-        <v>7.3999999999999995</v>
+        <v>8.32</v>
       </c>
       <c r="BJ20">
         <f t="shared" si="4"/>
-        <v>7.5</v>
+        <v>8.44</v>
       </c>
       <c r="BK20">
         <f t="shared" si="4"/>
-        <v>7.6</v>
+        <v>8.56</v>
       </c>
       <c r="BL20">
         <f t="shared" si="4"/>
-        <v>7.7</v>
+        <v>8.68</v>
       </c>
       <c r="BM20">
         <f t="shared" si="4"/>
-        <v>7.8</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="21" spans="4:65" x14ac:dyDescent="0.3">
@@ -5287,243 +5287,243 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>1.9300000000000002</v>
+        <v>1.756</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>2.0350000000000001</v>
+        <v>1.8820000000000001</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>2.14</v>
+        <v>2.008</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>2.2450000000000001</v>
+        <v>2.1339999999999999</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>2.35</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>2.4550000000000001</v>
+        <v>2.3860000000000001</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>2.56</v>
+        <v>2.512</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>2.665</v>
+        <v>2.6379999999999999</v>
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
-        <v>2.7700000000000005</v>
+        <v>2.7640000000000002</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>2.875</v>
+        <v>2.8899999999999997</v>
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
-        <v>2.98</v>
+        <v>3.016</v>
       </c>
       <c r="Q21">
         <f t="shared" si="1"/>
-        <v>3.085</v>
+        <v>3.1419999999999999</v>
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
-        <v>3.19</v>
+        <v>3.2679999999999998</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
-        <v>3.2949999999999999</v>
+        <v>3.3940000000000001</v>
       </c>
       <c r="T21">
         <f t="shared" si="1"/>
-        <v>3.4000000000000004</v>
+        <v>3.52</v>
       </c>
       <c r="U21">
         <f t="shared" si="1"/>
-        <v>3.5049999999999999</v>
+        <v>3.6459999999999999</v>
       </c>
       <c r="V21">
         <f t="shared" si="5"/>
-        <v>3.6100000000000003</v>
+        <v>3.7719999999999998</v>
       </c>
       <c r="W21">
         <f t="shared" si="5"/>
-        <v>3.7149999999999999</v>
+        <v>3.8980000000000001</v>
       </c>
       <c r="X21">
         <f t="shared" si="5"/>
-        <v>3.8200000000000003</v>
+        <v>4.024</v>
       </c>
       <c r="Y21">
         <f t="shared" si="5"/>
-        <v>3.9249999999999998</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="Z21">
         <f t="shared" si="5"/>
-        <v>4.03</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="AA21">
         <f t="shared" si="5"/>
-        <v>4.1349999999999998</v>
+        <v>4.4020000000000001</v>
       </c>
       <c r="AB21">
         <f t="shared" si="5"/>
-        <v>4.24</v>
+        <v>4.5280000000000005</v>
       </c>
       <c r="AC21">
         <f t="shared" si="5"/>
-        <v>4.3449999999999998</v>
+        <v>4.6539999999999999</v>
       </c>
       <c r="AD21">
         <f t="shared" si="5"/>
-        <v>4.45</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="AE21">
         <f t="shared" si="5"/>
-        <v>4.5549999999999997</v>
+        <v>4.9059999999999997</v>
       </c>
       <c r="AF21">
         <f t="shared" si="5"/>
-        <v>4.66</v>
+        <v>5.032</v>
       </c>
       <c r="AG21">
         <f t="shared" si="5"/>
-        <v>4.7650000000000006</v>
+        <v>5.1580000000000004</v>
       </c>
       <c r="AH21">
         <f t="shared" si="5"/>
-        <v>4.87</v>
+        <v>5.2839999999999998</v>
       </c>
       <c r="AI21">
         <f t="shared" si="5"/>
-        <v>4.9750000000000005</v>
+        <v>5.41</v>
       </c>
       <c r="AJ21">
         <f t="shared" si="5"/>
-        <v>5.08</v>
+        <v>5.5359999999999996</v>
       </c>
       <c r="AK21">
         <f t="shared" si="5"/>
-        <v>5.1849999999999996</v>
+        <v>5.6619999999999999</v>
       </c>
       <c r="AL21">
         <f t="shared" si="2"/>
-        <v>5.29</v>
+        <v>5.7880000000000003</v>
       </c>
       <c r="AM21">
         <f t="shared" si="2"/>
-        <v>5.3949999999999996</v>
+        <v>5.9139999999999997</v>
       </c>
       <c r="AN21">
         <f t="shared" si="2"/>
-        <v>5.5</v>
+        <v>6.04</v>
       </c>
       <c r="AO21">
         <f t="shared" si="2"/>
-        <v>5.6050000000000004</v>
+        <v>6.1660000000000004</v>
       </c>
       <c r="AP21">
         <f t="shared" si="3"/>
-        <v>5.71</v>
+        <v>6.2919999999999998</v>
       </c>
       <c r="AQ21">
         <f t="shared" si="3"/>
-        <v>5.8149999999999995</v>
+        <v>6.4180000000000001</v>
       </c>
       <c r="AR21">
         <f t="shared" si="3"/>
-        <v>5.92</v>
+        <v>6.5439999999999996</v>
       </c>
       <c r="AS21">
         <f t="shared" si="3"/>
-        <v>6.0250000000000004</v>
+        <v>6.67</v>
       </c>
       <c r="AT21">
         <f t="shared" si="3"/>
-        <v>6.13</v>
+        <v>6.7960000000000003</v>
       </c>
       <c r="AU21">
         <f t="shared" si="3"/>
-        <v>6.2350000000000003</v>
+        <v>6.9220000000000006</v>
       </c>
       <c r="AV21">
         <f t="shared" si="3"/>
-        <v>6.34</v>
+        <v>7.048</v>
       </c>
       <c r="AW21">
         <f t="shared" si="3"/>
-        <v>6.4449999999999994</v>
+        <v>7.1739999999999995</v>
       </c>
       <c r="AX21">
         <f t="shared" si="3"/>
-        <v>6.55</v>
+        <v>7.3</v>
       </c>
       <c r="AY21">
         <f t="shared" si="3"/>
-        <v>6.6550000000000002</v>
+        <v>7.4260000000000002</v>
       </c>
       <c r="AZ21">
         <f t="shared" si="3"/>
-        <v>6.76</v>
+        <v>7.5519999999999996</v>
       </c>
       <c r="BA21">
         <f t="shared" si="3"/>
-        <v>6.8650000000000002</v>
+        <v>7.6779999999999999</v>
       </c>
       <c r="BB21">
         <f t="shared" si="3"/>
-        <v>6.97</v>
+        <v>7.8040000000000003</v>
       </c>
       <c r="BC21">
         <f t="shared" si="3"/>
-        <v>7.0750000000000002</v>
+        <v>7.9300000000000006</v>
       </c>
       <c r="BD21">
         <f t="shared" si="3"/>
-        <v>7.1800000000000006</v>
+        <v>8.0560000000000009</v>
       </c>
       <c r="BE21">
         <f t="shared" si="3"/>
-        <v>7.2850000000000001</v>
+        <v>8.1820000000000004</v>
       </c>
       <c r="BF21">
         <f t="shared" si="4"/>
-        <v>7.39</v>
+        <v>8.3079999999999998</v>
       </c>
       <c r="BG21">
         <f t="shared" si="4"/>
-        <v>7.4949999999999992</v>
+        <v>8.4339999999999993</v>
       </c>
       <c r="BH21">
         <f t="shared" si="4"/>
-        <v>7.6</v>
+        <v>8.5599999999999987</v>
       </c>
       <c r="BI21">
         <f t="shared" si="4"/>
-        <v>7.7050000000000001</v>
+        <v>8.6859999999999999</v>
       </c>
       <c r="BJ21">
         <f t="shared" si="4"/>
-        <v>7.81</v>
+        <v>8.8119999999999994</v>
       </c>
       <c r="BK21">
         <f t="shared" si="4"/>
-        <v>7.915</v>
+        <v>8.9379999999999988</v>
       </c>
       <c r="BL21">
         <f t="shared" si="4"/>
-        <v>8.02</v>
+        <v>9.0640000000000001</v>
       </c>
       <c r="BM21">
         <f t="shared" si="4"/>
-        <v>8.125</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="22" spans="4:65" x14ac:dyDescent="0.3">
@@ -5535,243 +5535,243 @@
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>1.96</v>
+        <v>1.7919999999999998</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>2.0700000000000003</v>
+        <v>1.9239999999999999</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>2.1800000000000002</v>
+        <v>2.056</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>2.29</v>
+        <v>2.1879999999999997</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>2.4000000000000004</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>2.5099999999999998</v>
+        <v>2.452</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>2.62</v>
+        <v>2.5839999999999996</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>2.7300000000000004</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>2.84</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>2.95</v>
+        <v>2.9799999999999995</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>3.06</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="Q22">
         <f t="shared" si="1"/>
-        <v>3.17</v>
+        <v>3.2440000000000002</v>
       </c>
       <c r="R22">
         <f t="shared" si="1"/>
-        <v>3.2800000000000002</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="S22">
         <f t="shared" si="1"/>
-        <v>3.3899999999999997</v>
+        <v>3.508</v>
       </c>
       <c r="T22">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="U22">
         <f t="shared" si="1"/>
-        <v>3.6100000000000003</v>
+        <v>3.7719999999999998</v>
       </c>
       <c r="V22">
         <f t="shared" si="5"/>
-        <v>3.7199999999999998</v>
+        <v>3.9039999999999999</v>
       </c>
       <c r="W22">
         <f t="shared" si="5"/>
-        <v>3.83</v>
+        <v>4.0359999999999996</v>
       </c>
       <c r="X22">
         <f t="shared" si="5"/>
-        <v>3.9399999999999995</v>
+        <v>4.1679999999999993</v>
       </c>
       <c r="Y22">
         <f t="shared" si="5"/>
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="Z22">
         <f t="shared" si="5"/>
-        <v>4.16</v>
+        <v>4.4320000000000004</v>
       </c>
       <c r="AA22">
         <f t="shared" si="5"/>
-        <v>4.2700000000000005</v>
+        <v>4.5640000000000001</v>
       </c>
       <c r="AB22">
         <f t="shared" si="5"/>
-        <v>4.38</v>
+        <v>4.6959999999999997</v>
       </c>
       <c r="AC22">
         <f t="shared" si="5"/>
-        <v>4.49</v>
+        <v>4.8279999999999994</v>
       </c>
       <c r="AD22">
         <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
+        <v>4.9599999999999991</v>
       </c>
       <c r="AE22">
         <f t="shared" si="5"/>
-        <v>4.71</v>
+        <v>5.0919999999999996</v>
       </c>
       <c r="AF22">
         <f t="shared" si="5"/>
-        <v>4.82</v>
+        <v>5.2240000000000002</v>
       </c>
       <c r="AG22">
         <f t="shared" si="5"/>
-        <v>4.9300000000000006</v>
+        <v>5.3559999999999999</v>
       </c>
       <c r="AH22">
         <f t="shared" si="5"/>
-        <v>5.04</v>
+        <v>5.4880000000000004</v>
       </c>
       <c r="AI22">
         <f t="shared" si="5"/>
-        <v>5.15</v>
+        <v>5.62</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="5"/>
-        <v>5.26</v>
+        <v>5.7519999999999998</v>
       </c>
       <c r="AK22">
         <f t="shared" si="5"/>
-        <v>5.37</v>
+        <v>5.8839999999999995</v>
       </c>
       <c r="AL22">
         <f t="shared" si="2"/>
-        <v>5.4799999999999995</v>
+        <v>6.016</v>
       </c>
       <c r="AM22">
         <f t="shared" si="2"/>
-        <v>5.59</v>
+        <v>6.1479999999999997</v>
       </c>
       <c r="AN22">
         <f t="shared" si="2"/>
-        <v>5.7</v>
+        <v>6.28</v>
       </c>
       <c r="AO22">
         <f t="shared" si="2"/>
-        <v>5.8100000000000005</v>
+        <v>6.4119999999999999</v>
       </c>
       <c r="AP22">
         <f t="shared" si="3"/>
-        <v>5.92</v>
+        <v>6.5439999999999996</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="3"/>
-        <v>6.0299999999999994</v>
+        <v>6.6759999999999993</v>
       </c>
       <c r="AR22">
         <f t="shared" si="3"/>
-        <v>6.14</v>
+        <v>6.8079999999999998</v>
       </c>
       <c r="AS22">
         <f t="shared" si="3"/>
-        <v>6.25</v>
+        <v>6.9399999999999995</v>
       </c>
       <c r="AT22">
         <f t="shared" si="3"/>
-        <v>6.36</v>
+        <v>7.0720000000000001</v>
       </c>
       <c r="AU22">
         <f t="shared" si="3"/>
-        <v>6.47</v>
+        <v>7.2039999999999997</v>
       </c>
       <c r="AV22">
         <f t="shared" si="3"/>
-        <v>6.5799999999999992</v>
+        <v>7.3359999999999994</v>
       </c>
       <c r="AW22">
         <f t="shared" si="3"/>
-        <v>6.6899999999999995</v>
+        <v>7.468</v>
       </c>
       <c r="AX22">
         <f t="shared" si="3"/>
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AY22">
         <f t="shared" si="3"/>
-        <v>6.91</v>
+        <v>7.7319999999999993</v>
       </c>
       <c r="AZ22">
         <f t="shared" si="3"/>
-        <v>7.0200000000000005</v>
+        <v>7.8639999999999999</v>
       </c>
       <c r="BA22">
         <f t="shared" si="3"/>
-        <v>7.13</v>
+        <v>7.9959999999999996</v>
       </c>
       <c r="BB22">
         <f t="shared" si="3"/>
-        <v>7.24</v>
+        <v>8.1280000000000001</v>
       </c>
       <c r="BC22">
         <f t="shared" si="3"/>
-        <v>7.3500000000000005</v>
+        <v>8.26</v>
       </c>
       <c r="BD22">
         <f t="shared" si="3"/>
-        <v>7.46</v>
+        <v>8.3919999999999995</v>
       </c>
       <c r="BE22">
         <f t="shared" ref="BE22:BM30" si="6">(COLUMN(BE22)*$B$1)*(ROW(BE22)*$B$2)+$B$3</f>
-        <v>7.57</v>
+        <v>8.5240000000000009</v>
       </c>
       <c r="BF22">
         <f t="shared" si="6"/>
-        <v>7.68</v>
+        <v>8.6559999999999988</v>
       </c>
       <c r="BG22">
         <f t="shared" si="6"/>
-        <v>7.7899999999999991</v>
+        <v>8.7880000000000003</v>
       </c>
       <c r="BH22">
         <f t="shared" si="6"/>
-        <v>7.8999999999999995</v>
+        <v>8.9199999999999982</v>
       </c>
       <c r="BI22">
         <f t="shared" si="6"/>
-        <v>8.01</v>
+        <v>9.0519999999999996</v>
       </c>
       <c r="BJ22">
         <f t="shared" si="6"/>
-        <v>8.120000000000001</v>
+        <v>9.1839999999999993</v>
       </c>
       <c r="BK22">
         <f t="shared" si="6"/>
-        <v>8.23</v>
+        <v>9.3159999999999989</v>
       </c>
       <c r="BL22">
         <f t="shared" si="6"/>
-        <v>8.34</v>
+        <v>9.4480000000000004</v>
       </c>
       <c r="BM22">
         <f t="shared" si="6"/>
-        <v>8.4500000000000011</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="23" spans="4:65" x14ac:dyDescent="0.3">
@@ -5783,243 +5783,243 @@
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1.99</v>
+        <v>1.8279999999999998</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>2.105</v>
+        <v>1.966</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>2.2200000000000002</v>
+        <v>2.1040000000000001</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>2.335</v>
+        <v>2.242</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>2.4500000000000002</v>
+        <v>2.38</v>
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>2.5649999999999999</v>
+        <v>2.5179999999999998</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>2.6799999999999997</v>
+        <v>2.6559999999999997</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>2.7949999999999999</v>
+        <v>2.7939999999999996</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>2.91</v>
+        <v>2.9319999999999999</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>3.0249999999999999</v>
+        <v>3.07</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>3.14</v>
+        <v>3.2079999999999997</v>
       </c>
       <c r="Q23">
         <f t="shared" ref="Q23:AF30" si="7">(COLUMN(Q23)*$B$1)*(ROW(Q23)*$B$2)+$B$3</f>
-        <v>3.2549999999999999</v>
+        <v>3.3460000000000001</v>
       </c>
       <c r="R23">
         <f t="shared" si="7"/>
-        <v>3.37</v>
+        <v>3.4839999999999995</v>
       </c>
       <c r="S23">
         <f t="shared" si="7"/>
-        <v>3.4850000000000003</v>
+        <v>3.6219999999999999</v>
       </c>
       <c r="T23">
         <f t="shared" si="7"/>
-        <v>3.6000000000000005</v>
+        <v>3.76</v>
       </c>
       <c r="U23">
         <f t="shared" si="7"/>
-        <v>3.7149999999999999</v>
+        <v>3.8979999999999997</v>
       </c>
       <c r="V23">
         <f t="shared" si="7"/>
-        <v>3.83</v>
+        <v>4.0359999999999996</v>
       </c>
       <c r="W23">
         <f t="shared" si="7"/>
-        <v>3.9450000000000003</v>
+        <v>4.1739999999999995</v>
       </c>
       <c r="X23">
         <f t="shared" si="7"/>
-        <v>4.0599999999999996</v>
+        <v>4.3119999999999994</v>
       </c>
       <c r="Y23">
         <f t="shared" si="7"/>
-        <v>4.1749999999999998</v>
+        <v>4.4499999999999993</v>
       </c>
       <c r="Z23">
         <f t="shared" si="7"/>
-        <v>4.29</v>
+        <v>4.5879999999999992</v>
       </c>
       <c r="AA23">
         <f t="shared" si="7"/>
-        <v>4.4050000000000002</v>
+        <v>4.726</v>
       </c>
       <c r="AB23">
         <f t="shared" si="7"/>
-        <v>4.5200000000000005</v>
+        <v>4.8639999999999999</v>
       </c>
       <c r="AC23">
         <f t="shared" si="7"/>
-        <v>4.6349999999999998</v>
+        <v>5.0019999999999998</v>
       </c>
       <c r="AD23">
         <f t="shared" si="7"/>
-        <v>4.75</v>
+        <v>5.14</v>
       </c>
       <c r="AE23">
         <f t="shared" si="7"/>
-        <v>4.8650000000000002</v>
+        <v>5.2779999999999996</v>
       </c>
       <c r="AF23">
         <f t="shared" si="7"/>
-        <v>4.9800000000000004</v>
+        <v>5.4159999999999995</v>
       </c>
       <c r="AG23">
         <f t="shared" si="5"/>
-        <v>5.0950000000000006</v>
+        <v>5.5540000000000003</v>
       </c>
       <c r="AH23">
         <f t="shared" si="5"/>
-        <v>5.21</v>
+        <v>5.6920000000000002</v>
       </c>
       <c r="AI23">
         <f t="shared" si="5"/>
-        <v>5.3250000000000002</v>
+        <v>5.83</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="5"/>
-        <v>5.4399999999999995</v>
+        <v>5.9679999999999991</v>
       </c>
       <c r="AK23">
         <f t="shared" si="5"/>
-        <v>5.5549999999999997</v>
+        <v>6.1059999999999999</v>
       </c>
       <c r="AL23">
         <f t="shared" si="2"/>
-        <v>5.67</v>
+        <v>6.2439999999999998</v>
       </c>
       <c r="AM23">
         <f t="shared" si="2"/>
-        <v>5.7850000000000001</v>
+        <v>6.3819999999999997</v>
       </c>
       <c r="AN23">
         <f t="shared" si="2"/>
-        <v>5.9</v>
+        <v>6.52</v>
       </c>
       <c r="AO23">
         <f t="shared" si="2"/>
-        <v>6.0150000000000006</v>
+        <v>6.6580000000000004</v>
       </c>
       <c r="AP23">
         <f t="shared" ref="AP23:BE30" si="8">(COLUMN(AP23)*$B$1)*(ROW(AP23)*$B$2)+$B$3</f>
-        <v>6.13</v>
+        <v>6.7959999999999994</v>
       </c>
       <c r="AQ23">
         <f t="shared" si="8"/>
-        <v>6.2450000000000001</v>
+        <v>6.9339999999999993</v>
       </c>
       <c r="AR23">
         <f t="shared" si="8"/>
-        <v>6.3599999999999994</v>
+        <v>7.0719999999999992</v>
       </c>
       <c r="AS23">
         <f t="shared" si="8"/>
-        <v>6.4749999999999996</v>
+        <v>7.21</v>
       </c>
       <c r="AT23">
         <f t="shared" si="8"/>
-        <v>6.59</v>
+        <v>7.3479999999999999</v>
       </c>
       <c r="AU23">
         <f t="shared" si="8"/>
-        <v>6.7050000000000001</v>
+        <v>7.4859999999999998</v>
       </c>
       <c r="AV23">
         <f t="shared" si="8"/>
-        <v>6.8199999999999994</v>
+        <v>7.6239999999999997</v>
       </c>
       <c r="AW23">
         <f t="shared" si="8"/>
-        <v>6.9349999999999996</v>
+        <v>7.7619999999999996</v>
       </c>
       <c r="AX23">
         <f t="shared" si="8"/>
-        <v>7.05</v>
+        <v>7.8999999999999995</v>
       </c>
       <c r="AY23">
         <f t="shared" si="8"/>
-        <v>7.165</v>
+        <v>8.0380000000000003</v>
       </c>
       <c r="AZ23">
         <f t="shared" si="8"/>
-        <v>7.28</v>
+        <v>8.1759999999999984</v>
       </c>
       <c r="BA23">
         <f t="shared" si="8"/>
-        <v>7.3950000000000005</v>
+        <v>8.3140000000000001</v>
       </c>
       <c r="BB23">
         <f t="shared" si="8"/>
-        <v>7.5100000000000007</v>
+        <v>8.452</v>
       </c>
       <c r="BC23">
         <f t="shared" si="8"/>
-        <v>7.625</v>
+        <v>8.59</v>
       </c>
       <c r="BD23">
         <f t="shared" si="8"/>
-        <v>7.74</v>
+        <v>8.7279999999999998</v>
       </c>
       <c r="BE23">
         <f t="shared" si="8"/>
-        <v>7.8550000000000004</v>
+        <v>8.8659999999999997</v>
       </c>
       <c r="BF23">
         <f t="shared" si="6"/>
-        <v>7.97</v>
+        <v>9.0039999999999996</v>
       </c>
       <c r="BG23">
         <f t="shared" si="6"/>
-        <v>8.0849999999999991</v>
+        <v>9.1419999999999995</v>
       </c>
       <c r="BH23">
         <f t="shared" si="6"/>
-        <v>8.1999999999999993</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="BI23">
         <f t="shared" si="6"/>
-        <v>8.3149999999999995</v>
+        <v>9.4179999999999993</v>
       </c>
       <c r="BJ23">
         <f t="shared" si="6"/>
-        <v>8.43</v>
+        <v>9.5559999999999992</v>
       </c>
       <c r="BK23">
         <f t="shared" si="6"/>
-        <v>8.5449999999999999</v>
+        <v>9.6939999999999991</v>
       </c>
       <c r="BL23">
         <f t="shared" si="6"/>
-        <v>8.66</v>
+        <v>9.831999999999999</v>
       </c>
       <c r="BM23">
         <f t="shared" si="6"/>
-        <v>8.7750000000000004</v>
+        <v>9.9699999999999989</v>
       </c>
     </row>
     <row r="24" spans="4:65" x14ac:dyDescent="0.3">
@@ -6031,243 +6031,243 @@
       </c>
       <c r="F24">
         <f t="shared" ref="F24:U30" si="9">(COLUMN(F24)*$B$1)*(ROW(F24)*$B$2)+$B$3</f>
-        <v>2.02</v>
+        <v>1.8639999999999999</v>
       </c>
       <c r="G24">
         <f t="shared" si="9"/>
-        <v>2.14</v>
+        <v>2.008</v>
       </c>
       <c r="H24">
         <f t="shared" si="9"/>
-        <v>2.2599999999999998</v>
+        <v>2.1520000000000001</v>
       </c>
       <c r="I24">
         <f t="shared" si="9"/>
-        <v>2.38</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="J24">
         <f t="shared" si="9"/>
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="K24">
         <f t="shared" si="9"/>
-        <v>2.62</v>
+        <v>2.5839999999999996</v>
       </c>
       <c r="L24">
         <f t="shared" si="9"/>
-        <v>2.74</v>
+        <v>2.7279999999999998</v>
       </c>
       <c r="M24">
         <f t="shared" si="9"/>
-        <v>2.8600000000000003</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="N24">
         <f t="shared" si="9"/>
-        <v>2.9800000000000004</v>
+        <v>3.016</v>
       </c>
       <c r="O24">
         <f t="shared" si="9"/>
-        <v>3.0999999999999996</v>
+        <v>3.1599999999999997</v>
       </c>
       <c r="P24">
         <f t="shared" si="9"/>
-        <v>3.2199999999999998</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="Q24">
         <f t="shared" si="9"/>
-        <v>3.34</v>
+        <v>3.448</v>
       </c>
       <c r="R24">
         <f t="shared" si="9"/>
-        <v>3.46</v>
+        <v>3.5919999999999996</v>
       </c>
       <c r="S24">
         <f t="shared" si="9"/>
-        <v>3.58</v>
+        <v>3.7359999999999998</v>
       </c>
       <c r="T24">
         <f t="shared" si="9"/>
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="U24">
         <f t="shared" si="9"/>
-        <v>3.8200000000000003</v>
+        <v>4.0239999999999991</v>
       </c>
       <c r="V24">
         <f t="shared" si="7"/>
-        <v>3.9400000000000004</v>
+        <v>4.1679999999999993</v>
       </c>
       <c r="W24">
         <f t="shared" si="7"/>
-        <v>4.0600000000000005</v>
+        <v>4.3119999999999994</v>
       </c>
       <c r="X24">
         <f t="shared" si="7"/>
-        <v>4.18</v>
+        <v>4.4559999999999995</v>
       </c>
       <c r="Y24">
         <f t="shared" si="7"/>
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Z24">
         <f t="shared" si="7"/>
-        <v>4.42</v>
+        <v>4.7439999999999998</v>
       </c>
       <c r="AA24">
         <f t="shared" si="7"/>
-        <v>4.54</v>
+        <v>4.8879999999999999</v>
       </c>
       <c r="AB24">
         <f t="shared" si="7"/>
-        <v>4.66</v>
+        <v>5.032</v>
       </c>
       <c r="AC24">
         <f t="shared" si="7"/>
-        <v>4.7799999999999994</v>
+        <v>5.1759999999999993</v>
       </c>
       <c r="AD24">
         <f t="shared" si="7"/>
-        <v>4.8999999999999995</v>
+        <v>5.3199999999999994</v>
       </c>
       <c r="AE24">
         <f t="shared" si="7"/>
-        <v>5.0199999999999996</v>
+        <v>5.4639999999999995</v>
       </c>
       <c r="AF24">
         <f t="shared" si="7"/>
-        <v>5.14</v>
+        <v>5.6079999999999997</v>
       </c>
       <c r="AG24">
         <f t="shared" si="5"/>
-        <v>5.26</v>
+        <v>5.7519999999999998</v>
       </c>
       <c r="AH24">
         <f t="shared" si="5"/>
-        <v>5.38</v>
+        <v>5.8959999999999999</v>
       </c>
       <c r="AI24">
         <f t="shared" si="5"/>
-        <v>5.5</v>
+        <v>6.04</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="5"/>
-        <v>5.62</v>
+        <v>6.1839999999999993</v>
       </c>
       <c r="AK24">
         <f t="shared" si="5"/>
-        <v>5.7399999999999993</v>
+        <v>6.3279999999999994</v>
       </c>
       <c r="AL24">
         <f t="shared" si="2"/>
-        <v>5.86</v>
+        <v>6.4719999999999995</v>
       </c>
       <c r="AM24">
         <f t="shared" si="2"/>
-        <v>5.9799999999999995</v>
+        <v>6.6159999999999997</v>
       </c>
       <c r="AN24">
         <f t="shared" si="2"/>
-        <v>6.1000000000000005</v>
+        <v>6.76</v>
       </c>
       <c r="AO24">
         <f t="shared" si="2"/>
-        <v>6.22</v>
+        <v>6.9039999999999999</v>
       </c>
       <c r="AP24">
         <f t="shared" si="8"/>
-        <v>6.34</v>
+        <v>7.0479999999999992</v>
       </c>
       <c r="AQ24">
         <f t="shared" si="8"/>
-        <v>6.46</v>
+        <v>7.1919999999999993</v>
       </c>
       <c r="AR24">
         <f t="shared" si="8"/>
-        <v>6.58</v>
+        <v>7.3359999999999994</v>
       </c>
       <c r="AS24">
         <f t="shared" si="8"/>
-        <v>6.7</v>
+        <v>7.4799999999999995</v>
       </c>
       <c r="AT24">
         <f t="shared" si="8"/>
-        <v>6.82</v>
+        <v>7.6239999999999997</v>
       </c>
       <c r="AU24">
         <f t="shared" si="8"/>
-        <v>6.94</v>
+        <v>7.7679999999999998</v>
       </c>
       <c r="AV24">
         <f t="shared" si="8"/>
-        <v>7.06</v>
+        <v>7.911999999999999</v>
       </c>
       <c r="AW24">
         <f t="shared" si="8"/>
-        <v>7.18</v>
+        <v>8.0559999999999992</v>
       </c>
       <c r="AX24">
         <f t="shared" si="8"/>
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AY24">
         <f t="shared" si="8"/>
-        <v>7.42</v>
+        <v>8.3439999999999994</v>
       </c>
       <c r="AZ24">
         <f t="shared" si="8"/>
-        <v>7.54</v>
+        <v>8.4879999999999995</v>
       </c>
       <c r="BA24">
         <f t="shared" si="8"/>
-        <v>7.66</v>
+        <v>8.6319999999999997</v>
       </c>
       <c r="BB24">
         <f t="shared" si="8"/>
-        <v>7.78</v>
+        <v>8.7759999999999998</v>
       </c>
       <c r="BC24">
         <f t="shared" si="8"/>
-        <v>7.9</v>
+        <v>8.92</v>
       </c>
       <c r="BD24">
         <f t="shared" si="8"/>
-        <v>8.0200000000000014</v>
+        <v>9.0640000000000001</v>
       </c>
       <c r="BE24">
         <f t="shared" si="8"/>
-        <v>8.14</v>
+        <v>9.2080000000000002</v>
       </c>
       <c r="BF24">
         <f t="shared" si="6"/>
-        <v>8.26</v>
+        <v>9.3519999999999985</v>
       </c>
       <c r="BG24">
         <f t="shared" si="6"/>
-        <v>8.3800000000000008</v>
+        <v>9.4959999999999987</v>
       </c>
       <c r="BH24">
         <f t="shared" si="6"/>
-        <v>8.5</v>
+        <v>9.6399999999999988</v>
       </c>
       <c r="BI24">
         <f t="shared" si="6"/>
-        <v>8.620000000000001</v>
+        <v>9.7839999999999989</v>
       </c>
       <c r="BJ24">
         <f t="shared" si="6"/>
-        <v>8.74</v>
+        <v>9.927999999999999</v>
       </c>
       <c r="BK24">
         <f t="shared" si="6"/>
-        <v>8.8600000000000012</v>
+        <v>10.071999999999999</v>
       </c>
       <c r="BL24">
         <f t="shared" si="6"/>
-        <v>8.98</v>
+        <v>10.215999999999999</v>
       </c>
       <c r="BM24">
         <f t="shared" si="6"/>
-        <v>9.1000000000000014</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="25" spans="4:65" x14ac:dyDescent="0.3">
@@ -6279,27 +6279,27 @@
       </c>
       <c r="F25">
         <f t="shared" si="9"/>
+        <v>1.9</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
         <v>2.0499999999999998</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="9"/>
-        <v>2.1750000000000003</v>
-      </c>
       <c r="H25">
         <f t="shared" si="9"/>
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I25">
         <f t="shared" si="9"/>
-        <v>2.4249999999999998</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="J25">
         <f t="shared" si="9"/>
-        <v>2.5499999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="K25">
         <f t="shared" si="9"/>
-        <v>2.6749999999999998</v>
+        <v>2.65</v>
       </c>
       <c r="L25">
         <f t="shared" si="9"/>
@@ -6307,215 +6307,215 @@
       </c>
       <c r="M25">
         <f t="shared" si="9"/>
-        <v>2.9249999999999998</v>
+        <v>2.95</v>
       </c>
       <c r="N25">
         <f t="shared" si="9"/>
-        <v>3.0500000000000003</v>
+        <v>3.1</v>
       </c>
       <c r="O25">
         <f t="shared" si="9"/>
-        <v>3.1749999999999998</v>
+        <v>3.25</v>
       </c>
       <c r="P25">
         <f t="shared" si="9"/>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q25">
         <f t="shared" si="9"/>
-        <v>3.4249999999999998</v>
+        <v>3.5500000000000003</v>
       </c>
       <c r="R25">
         <f t="shared" si="9"/>
-        <v>3.55</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="S25">
         <f t="shared" si="9"/>
-        <v>3.6749999999999998</v>
+        <v>3.85</v>
       </c>
       <c r="T25">
         <f t="shared" si="9"/>
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="U25">
         <f t="shared" si="9"/>
-        <v>3.9249999999999998</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="V25">
         <f t="shared" si="7"/>
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="W25">
         <f t="shared" si="7"/>
-        <v>4.1749999999999998</v>
+        <v>4.45</v>
       </c>
       <c r="X25">
         <f t="shared" si="7"/>
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="Y25">
         <f t="shared" si="7"/>
-        <v>4.4249999999999998</v>
+        <v>4.75</v>
       </c>
       <c r="Z25">
         <f t="shared" si="7"/>
-        <v>4.55</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AA25">
         <f t="shared" si="7"/>
-        <v>4.6749999999999998</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="AB25">
         <f t="shared" si="7"/>
-        <v>4.8000000000000007</v>
+        <v>5.2</v>
       </c>
       <c r="AC25">
         <f t="shared" si="7"/>
-        <v>4.9249999999999998</v>
+        <v>5.35</v>
       </c>
       <c r="AD25">
         <f t="shared" si="7"/>
-        <v>5.05</v>
+        <v>5.5</v>
       </c>
       <c r="AE25">
         <f t="shared" si="7"/>
-        <v>5.1749999999999998</v>
+        <v>5.65</v>
       </c>
       <c r="AF25">
         <f t="shared" si="7"/>
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AG25">
         <f t="shared" si="5"/>
-        <v>5.4249999999999998</v>
+        <v>5.95</v>
       </c>
       <c r="AH25">
         <f t="shared" si="5"/>
-        <v>5.55</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="AI25">
         <f t="shared" si="5"/>
-        <v>5.6749999999999998</v>
+        <v>6.2500000000000009</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="5"/>
-        <v>5.8</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AK25">
         <f t="shared" si="5"/>
-        <v>5.9249999999999998</v>
+        <v>6.55</v>
       </c>
       <c r="AL25">
         <f t="shared" si="2"/>
-        <v>6.05</v>
+        <v>6.7</v>
       </c>
       <c r="AM25">
         <f t="shared" si="2"/>
-        <v>6.1749999999999998</v>
+        <v>6.8500000000000005</v>
       </c>
       <c r="AN25">
         <f t="shared" si="2"/>
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AO25">
         <f t="shared" si="2"/>
-        <v>6.4249999999999998</v>
+        <v>7.15</v>
       </c>
       <c r="AP25">
         <f t="shared" si="8"/>
-        <v>6.55</v>
+        <v>7.3</v>
       </c>
       <c r="AQ25">
         <f t="shared" si="8"/>
-        <v>6.6749999999999998</v>
+        <v>7.45</v>
       </c>
       <c r="AR25">
         <f t="shared" si="8"/>
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AS25">
         <f t="shared" si="8"/>
-        <v>6.9249999999999998</v>
+        <v>7.75</v>
       </c>
       <c r="AT25">
         <f t="shared" si="8"/>
-        <v>7.05</v>
+        <v>7.9</v>
       </c>
       <c r="AU25">
         <f t="shared" si="8"/>
-        <v>7.1749999999999998</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AV25">
         <f t="shared" si="8"/>
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AW25">
         <f t="shared" si="8"/>
-        <v>7.4249999999999998</v>
+        <v>8.35</v>
       </c>
       <c r="AX25">
         <f t="shared" si="8"/>
-        <v>7.55</v>
+        <v>8.5</v>
       </c>
       <c r="AY25">
         <f t="shared" si="8"/>
-        <v>7.6749999999999998</v>
+        <v>8.65</v>
       </c>
       <c r="AZ25">
         <f t="shared" si="8"/>
-        <v>7.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="BA25">
         <f t="shared" si="8"/>
-        <v>7.9249999999999998</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="BB25">
         <f t="shared" si="8"/>
-        <v>8.0500000000000007</v>
+        <v>9.1000000000000014</v>
       </c>
       <c r="BC25">
         <f t="shared" si="8"/>
-        <v>8.1750000000000007</v>
+        <v>9.25</v>
       </c>
       <c r="BD25">
         <f t="shared" si="8"/>
-        <v>8.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="BE25">
         <f t="shared" si="8"/>
-        <v>8.4250000000000007</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="BF25">
         <f t="shared" si="6"/>
-        <v>8.5499999999999989</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="BG25">
         <f t="shared" si="6"/>
-        <v>8.6750000000000007</v>
+        <v>9.85</v>
       </c>
       <c r="BH25">
         <f t="shared" si="6"/>
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="BI25">
         <f t="shared" si="6"/>
-        <v>8.9250000000000007</v>
+        <v>10.15</v>
       </c>
       <c r="BJ25">
         <f t="shared" si="6"/>
-        <v>9.0500000000000007</v>
+        <v>10.3</v>
       </c>
       <c r="BK25">
         <f t="shared" si="6"/>
-        <v>9.1750000000000007</v>
+        <v>10.45</v>
       </c>
       <c r="BL25">
         <f t="shared" si="6"/>
-        <v>9.3000000000000007</v>
+        <v>10.6</v>
       </c>
       <c r="BM25">
         <f t="shared" si="6"/>
-        <v>9.4250000000000007</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="26" spans="4:65" x14ac:dyDescent="0.3">
@@ -6527,243 +6527,243 @@
       </c>
       <c r="F26">
         <f t="shared" si="9"/>
-        <v>2.08</v>
+        <v>1.9359999999999999</v>
       </c>
       <c r="G26">
         <f t="shared" si="9"/>
-        <v>2.21</v>
+        <v>2.0920000000000001</v>
       </c>
       <c r="H26">
         <f t="shared" si="9"/>
-        <v>2.34</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="I26">
         <f t="shared" si="9"/>
-        <v>2.4699999999999998</v>
+        <v>2.4039999999999999</v>
       </c>
       <c r="J26">
         <f t="shared" si="9"/>
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="K26">
         <f t="shared" si="9"/>
-        <v>2.73</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="L26">
         <f t="shared" si="9"/>
-        <v>2.8600000000000003</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="M26">
         <f t="shared" si="9"/>
-        <v>2.99</v>
+        <v>3.028</v>
       </c>
       <c r="N26">
         <f t="shared" si="9"/>
-        <v>3.12</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="O26">
         <f t="shared" si="9"/>
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="P26">
         <f t="shared" si="9"/>
-        <v>3.38</v>
+        <v>3.496</v>
       </c>
       <c r="Q26">
         <f t="shared" si="9"/>
-        <v>3.51</v>
+        <v>3.6520000000000001</v>
       </c>
       <c r="R26">
         <f t="shared" si="9"/>
-        <v>3.6399999999999997</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="S26">
         <f t="shared" si="9"/>
-        <v>3.7700000000000005</v>
+        <v>3.964</v>
       </c>
       <c r="T26">
         <f t="shared" si="9"/>
-        <v>3.9000000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="U26">
         <f t="shared" si="9"/>
-        <v>4.03</v>
+        <v>4.2759999999999998</v>
       </c>
       <c r="V26">
         <f t="shared" si="7"/>
-        <v>4.16</v>
+        <v>4.4320000000000004</v>
       </c>
       <c r="W26">
         <f t="shared" si="7"/>
-        <v>4.29</v>
+        <v>4.5880000000000001</v>
       </c>
       <c r="X26">
         <f t="shared" si="7"/>
-        <v>4.42</v>
+        <v>4.7439999999999998</v>
       </c>
       <c r="Y26">
         <f t="shared" si="7"/>
-        <v>4.55</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Z26">
         <f t="shared" si="7"/>
-        <v>4.68</v>
+        <v>5.056</v>
       </c>
       <c r="AA26">
         <f t="shared" si="7"/>
-        <v>4.8100000000000005</v>
+        <v>5.2119999999999997</v>
       </c>
       <c r="AB26">
         <f t="shared" si="7"/>
-        <v>4.9400000000000004</v>
+        <v>5.3680000000000003</v>
       </c>
       <c r="AC26">
         <f t="shared" si="7"/>
-        <v>5.0699999999999994</v>
+        <v>5.524</v>
       </c>
       <c r="AD26">
         <f t="shared" si="7"/>
-        <v>5.2</v>
+        <v>5.68</v>
       </c>
       <c r="AE26">
         <f t="shared" si="7"/>
-        <v>5.33</v>
+        <v>5.8360000000000003</v>
       </c>
       <c r="AF26">
         <f t="shared" si="7"/>
-        <v>5.46</v>
+        <v>5.992</v>
       </c>
       <c r="AG26">
         <f t="shared" ref="AG26:AV30" si="10">(COLUMN(AG26)*$B$1)*(ROW(AG26)*$B$2)+$B$3</f>
-        <v>5.59</v>
+        <v>6.1479999999999997</v>
       </c>
       <c r="AH26">
         <f t="shared" si="10"/>
-        <v>5.72</v>
+        <v>6.3040000000000003</v>
       </c>
       <c r="AI26">
         <f t="shared" si="10"/>
-        <v>5.8500000000000005</v>
+        <v>6.46</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="10"/>
-        <v>5.9799999999999995</v>
+        <v>6.6159999999999997</v>
       </c>
       <c r="AK26">
         <f t="shared" si="10"/>
-        <v>6.1099999999999994</v>
+        <v>6.7720000000000002</v>
       </c>
       <c r="AL26">
         <f t="shared" si="10"/>
-        <v>6.24</v>
+        <v>6.9279999999999999</v>
       </c>
       <c r="AM26">
         <f t="shared" si="10"/>
-        <v>6.37</v>
+        <v>7.0839999999999996</v>
       </c>
       <c r="AN26">
         <f t="shared" si="10"/>
-        <v>6.5</v>
+        <v>7.24</v>
       </c>
       <c r="AO26">
         <f t="shared" si="10"/>
-        <v>6.63</v>
+        <v>7.3959999999999999</v>
       </c>
       <c r="AP26">
         <f t="shared" si="10"/>
-        <v>6.76</v>
+        <v>7.5519999999999996</v>
       </c>
       <c r="AQ26">
         <f t="shared" si="10"/>
-        <v>6.89</v>
+        <v>7.7080000000000002</v>
       </c>
       <c r="AR26">
         <f t="shared" si="10"/>
-        <v>7.02</v>
+        <v>7.8639999999999999</v>
       </c>
       <c r="AS26">
         <f t="shared" si="10"/>
-        <v>7.15</v>
+        <v>8.02</v>
       </c>
       <c r="AT26">
         <f t="shared" si="10"/>
-        <v>7.28</v>
+        <v>8.1760000000000002</v>
       </c>
       <c r="AU26">
         <f t="shared" si="10"/>
-        <v>7.41</v>
+        <v>8.3320000000000007</v>
       </c>
       <c r="AV26">
         <f t="shared" si="10"/>
-        <v>7.54</v>
+        <v>8.4879999999999995</v>
       </c>
       <c r="AW26">
         <f t="shared" si="8"/>
-        <v>7.67</v>
+        <v>8.6440000000000001</v>
       </c>
       <c r="AX26">
         <f t="shared" si="8"/>
-        <v>7.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AY26">
         <f t="shared" si="8"/>
-        <v>7.93</v>
+        <v>8.9559999999999995</v>
       </c>
       <c r="AZ26">
         <f t="shared" si="8"/>
-        <v>8.06</v>
+        <v>9.1120000000000001</v>
       </c>
       <c r="BA26">
         <f t="shared" si="8"/>
-        <v>8.1900000000000013</v>
+        <v>9.2680000000000007</v>
       </c>
       <c r="BB26">
         <f t="shared" si="8"/>
-        <v>8.32</v>
+        <v>9.4239999999999995</v>
       </c>
       <c r="BC26">
         <f t="shared" si="8"/>
-        <v>8.4500000000000011</v>
+        <v>9.58</v>
       </c>
       <c r="BD26">
         <f t="shared" si="8"/>
-        <v>8.5800000000000018</v>
+        <v>9.7360000000000007</v>
       </c>
       <c r="BE26">
         <f t="shared" si="8"/>
-        <v>8.7100000000000009</v>
+        <v>9.8920000000000012</v>
       </c>
       <c r="BF26">
         <f t="shared" si="6"/>
-        <v>8.84</v>
+        <v>10.048</v>
       </c>
       <c r="BG26">
         <f t="shared" si="6"/>
-        <v>8.9700000000000006</v>
+        <v>10.203999999999999</v>
       </c>
       <c r="BH26">
         <f t="shared" si="6"/>
-        <v>9.1</v>
+        <v>10.36</v>
       </c>
       <c r="BI26">
         <f t="shared" si="6"/>
-        <v>9.23</v>
+        <v>10.516</v>
       </c>
       <c r="BJ26">
         <f t="shared" si="6"/>
-        <v>9.3600000000000012</v>
+        <v>10.672000000000001</v>
       </c>
       <c r="BK26">
         <f t="shared" si="6"/>
-        <v>9.49</v>
+        <v>10.827999999999999</v>
       </c>
       <c r="BL26">
         <f t="shared" si="6"/>
-        <v>9.620000000000001</v>
+        <v>10.984</v>
       </c>
       <c r="BM26">
         <f t="shared" si="6"/>
-        <v>9.7500000000000018</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="27" spans="4:65" x14ac:dyDescent="0.3">
@@ -6775,243 +6775,243 @@
       </c>
       <c r="F27">
         <f t="shared" si="9"/>
-        <v>2.11</v>
+        <v>1.972</v>
       </c>
       <c r="G27">
         <f t="shared" si="9"/>
-        <v>2.2450000000000001</v>
+        <v>2.1340000000000003</v>
       </c>
       <c r="H27">
         <f t="shared" si="9"/>
-        <v>2.38</v>
+        <v>2.2960000000000003</v>
       </c>
       <c r="I27">
         <f t="shared" si="9"/>
-        <v>2.5149999999999997</v>
+        <v>2.4580000000000002</v>
       </c>
       <c r="J27">
         <f t="shared" si="9"/>
-        <v>2.6500000000000004</v>
+        <v>2.62</v>
       </c>
       <c r="K27">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.782</v>
       </c>
       <c r="L27">
         <f t="shared" si="9"/>
-        <v>2.92</v>
+        <v>2.944</v>
       </c>
       <c r="M27">
         <f t="shared" si="9"/>
-        <v>3.0550000000000002</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="N27">
         <f t="shared" si="9"/>
-        <v>3.1900000000000004</v>
+        <v>3.2680000000000002</v>
       </c>
       <c r="O27">
         <f t="shared" si="9"/>
-        <v>3.3250000000000002</v>
+        <v>3.4299999999999997</v>
       </c>
       <c r="P27">
         <f t="shared" si="9"/>
-        <v>3.46</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="Q27">
         <f t="shared" si="9"/>
-        <v>3.5950000000000006</v>
+        <v>3.754</v>
       </c>
       <c r="R27">
         <f t="shared" si="9"/>
-        <v>3.7299999999999995</v>
+        <v>3.9159999999999999</v>
       </c>
       <c r="S27">
         <f t="shared" si="9"/>
-        <v>3.8650000000000002</v>
+        <v>4.0779999999999994</v>
       </c>
       <c r="T27">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>4.24</v>
       </c>
       <c r="U27">
         <f t="shared" si="9"/>
-        <v>4.1349999999999998</v>
+        <v>4.4019999999999992</v>
       </c>
       <c r="V27">
         <f t="shared" si="7"/>
-        <v>4.2700000000000005</v>
+        <v>4.5640000000000001</v>
       </c>
       <c r="W27">
         <f t="shared" si="7"/>
-        <v>4.4050000000000002</v>
+        <v>4.726</v>
       </c>
       <c r="X27">
         <f t="shared" si="7"/>
-        <v>4.54</v>
+        <v>4.8879999999999999</v>
       </c>
       <c r="Y27">
         <f t="shared" si="7"/>
-        <v>4.6749999999999998</v>
+        <v>5.05</v>
       </c>
       <c r="Z27">
         <f t="shared" si="7"/>
-        <v>4.8100000000000005</v>
+        <v>5.2119999999999997</v>
       </c>
       <c r="AA27">
         <f t="shared" si="7"/>
-        <v>4.9450000000000003</v>
+        <v>5.3739999999999997</v>
       </c>
       <c r="AB27">
         <f t="shared" si="7"/>
-        <v>5.08</v>
+        <v>5.5360000000000005</v>
       </c>
       <c r="AC27">
         <f t="shared" si="7"/>
-        <v>5.2149999999999999</v>
+        <v>5.6979999999999995</v>
       </c>
       <c r="AD27">
         <f t="shared" si="7"/>
-        <v>5.35</v>
+        <v>5.8599999999999994</v>
       </c>
       <c r="AE27">
         <f t="shared" si="7"/>
-        <v>5.4849999999999994</v>
+        <v>6.0219999999999994</v>
       </c>
       <c r="AF27">
         <f t="shared" si="7"/>
-        <v>5.62</v>
+        <v>6.1840000000000002</v>
       </c>
       <c r="AG27">
         <f t="shared" si="10"/>
-        <v>5.7549999999999999</v>
+        <v>6.3460000000000001</v>
       </c>
       <c r="AH27">
         <f t="shared" si="10"/>
-        <v>5.8900000000000006</v>
+        <v>6.508</v>
       </c>
       <c r="AI27">
         <f t="shared" si="10"/>
-        <v>6.0250000000000004</v>
+        <v>6.67</v>
       </c>
       <c r="AJ27">
         <f t="shared" si="10"/>
-        <v>6.1599999999999993</v>
+        <v>6.8319999999999999</v>
       </c>
       <c r="AK27">
         <f t="shared" si="10"/>
-        <v>6.2949999999999999</v>
+        <v>6.9939999999999998</v>
       </c>
       <c r="AL27">
         <f t="shared" si="10"/>
-        <v>6.43</v>
+        <v>7.1559999999999997</v>
       </c>
       <c r="AM27">
         <f t="shared" si="10"/>
-        <v>6.5650000000000004</v>
+        <v>7.3179999999999996</v>
       </c>
       <c r="AN27">
         <f t="shared" si="10"/>
-        <v>6.7</v>
+        <v>7.48</v>
       </c>
       <c r="AO27">
         <f t="shared" si="10"/>
-        <v>6.835</v>
+        <v>7.6420000000000003</v>
       </c>
       <c r="AP27">
         <f t="shared" si="10"/>
-        <v>6.97</v>
+        <v>7.8039999999999994</v>
       </c>
       <c r="AQ27">
         <f t="shared" si="10"/>
-        <v>7.1049999999999995</v>
+        <v>7.9659999999999993</v>
       </c>
       <c r="AR27">
         <f t="shared" si="10"/>
-        <v>7.24</v>
+        <v>8.1280000000000001</v>
       </c>
       <c r="AS27">
         <f t="shared" si="10"/>
-        <v>7.375</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="AT27">
         <f t="shared" si="10"/>
-        <v>7.51</v>
+        <v>8.452</v>
       </c>
       <c r="AU27">
         <f t="shared" si="10"/>
-        <v>7.6450000000000005</v>
+        <v>8.6140000000000008</v>
       </c>
       <c r="AV27">
         <f t="shared" si="10"/>
-        <v>7.7799999999999994</v>
+        <v>8.7759999999999998</v>
       </c>
       <c r="AW27">
         <f t="shared" si="8"/>
-        <v>7.915</v>
+        <v>8.9379999999999988</v>
       </c>
       <c r="AX27">
         <f t="shared" si="8"/>
-        <v>8.0500000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="AY27">
         <f t="shared" si="8"/>
-        <v>8.1850000000000005</v>
+        <v>9.2620000000000005</v>
       </c>
       <c r="AZ27">
         <f t="shared" si="8"/>
-        <v>8.32</v>
+        <v>9.4239999999999995</v>
       </c>
       <c r="BA27">
         <f t="shared" si="8"/>
-        <v>8.4550000000000001</v>
+        <v>9.5860000000000003</v>
       </c>
       <c r="BB27">
         <f t="shared" si="8"/>
-        <v>8.5900000000000016</v>
+        <v>9.7479999999999993</v>
       </c>
       <c r="BC27">
         <f t="shared" si="8"/>
-        <v>8.7250000000000014</v>
+        <v>9.91</v>
       </c>
       <c r="BD27">
         <f t="shared" si="8"/>
-        <v>8.8600000000000012</v>
+        <v>10.072000000000001</v>
       </c>
       <c r="BE27">
         <f t="shared" si="8"/>
-        <v>8.995000000000001</v>
+        <v>10.234</v>
       </c>
       <c r="BF27">
         <f t="shared" si="6"/>
-        <v>9.129999999999999</v>
+        <v>10.395999999999999</v>
       </c>
       <c r="BG27">
         <f t="shared" si="6"/>
-        <v>9.2650000000000006</v>
+        <v>10.558</v>
       </c>
       <c r="BH27">
         <f t="shared" si="6"/>
-        <v>9.4</v>
+        <v>10.719999999999999</v>
       </c>
       <c r="BI27">
         <f t="shared" si="6"/>
-        <v>9.5350000000000001</v>
+        <v>10.882</v>
       </c>
       <c r="BJ27">
         <f t="shared" si="6"/>
-        <v>9.67</v>
+        <v>11.043999999999999</v>
       </c>
       <c r="BK27">
         <f t="shared" si="6"/>
-        <v>9.8050000000000015</v>
+        <v>11.206</v>
       </c>
       <c r="BL27">
         <f t="shared" si="6"/>
-        <v>9.9400000000000013</v>
+        <v>11.368</v>
       </c>
       <c r="BM27">
         <f t="shared" si="6"/>
-        <v>10.075000000000001</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="28" spans="4:65" x14ac:dyDescent="0.3">
@@ -7023,243 +7023,243 @@
       </c>
       <c r="F28">
         <f t="shared" si="9"/>
-        <v>2.14</v>
+        <v>2.008</v>
       </c>
       <c r="G28">
         <f t="shared" si="9"/>
-        <v>2.2800000000000002</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="H28">
         <f t="shared" si="9"/>
-        <v>2.42</v>
+        <v>2.3440000000000003</v>
       </c>
       <c r="I28">
         <f t="shared" si="9"/>
-        <v>2.56</v>
+        <v>2.512</v>
       </c>
       <c r="J28">
         <f t="shared" si="9"/>
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="K28">
         <f t="shared" si="9"/>
-        <v>2.84</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="L28">
         <f t="shared" si="9"/>
-        <v>2.98</v>
+        <v>3.016</v>
       </c>
       <c r="M28">
         <f t="shared" si="9"/>
-        <v>3.12</v>
+        <v>3.1840000000000002</v>
       </c>
       <c r="N28">
         <f t="shared" si="9"/>
-        <v>3.2600000000000002</v>
+        <v>3.3520000000000003</v>
       </c>
       <c r="O28">
         <f t="shared" si="9"/>
-        <v>3.4000000000000004</v>
+        <v>3.52</v>
       </c>
       <c r="P28">
         <f t="shared" si="9"/>
-        <v>3.54</v>
+        <v>3.6880000000000002</v>
       </c>
       <c r="Q28">
         <f t="shared" si="9"/>
-        <v>3.6800000000000006</v>
+        <v>3.8560000000000003</v>
       </c>
       <c r="R28">
         <f t="shared" si="9"/>
-        <v>3.8200000000000003</v>
+        <v>4.024</v>
       </c>
       <c r="S28">
         <f t="shared" si="9"/>
-        <v>3.96</v>
+        <v>4.1920000000000002</v>
       </c>
       <c r="T28">
         <f t="shared" si="9"/>
-        <v>4.1000000000000005</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="U28">
         <f t="shared" si="9"/>
-        <v>4.24</v>
+        <v>4.5280000000000005</v>
       </c>
       <c r="V28">
         <f t="shared" si="7"/>
-        <v>4.38</v>
+        <v>4.6959999999999997</v>
       </c>
       <c r="W28">
         <f t="shared" si="7"/>
-        <v>4.5200000000000005</v>
+        <v>4.8640000000000008</v>
       </c>
       <c r="X28">
         <f t="shared" si="7"/>
-        <v>4.66</v>
+        <v>5.032</v>
       </c>
       <c r="Y28">
         <f t="shared" si="7"/>
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="Z28">
         <f t="shared" si="7"/>
-        <v>4.9400000000000004</v>
+        <v>5.3680000000000003</v>
       </c>
       <c r="AA28">
         <f t="shared" si="7"/>
-        <v>5.08</v>
+        <v>5.5360000000000005</v>
       </c>
       <c r="AB28">
         <f t="shared" si="7"/>
-        <v>5.2200000000000006</v>
+        <v>5.7040000000000006</v>
       </c>
       <c r="AC28">
         <f t="shared" si="7"/>
-        <v>5.3599999999999994</v>
+        <v>5.8719999999999999</v>
       </c>
       <c r="AD28">
         <f t="shared" si="7"/>
-        <v>5.5</v>
+        <v>6.04</v>
       </c>
       <c r="AE28">
         <f t="shared" si="7"/>
-        <v>5.64</v>
+        <v>6.2080000000000002</v>
       </c>
       <c r="AF28">
         <f t="shared" si="7"/>
-        <v>5.78</v>
+        <v>6.3760000000000003</v>
       </c>
       <c r="AG28">
         <f t="shared" si="10"/>
-        <v>5.92</v>
+        <v>6.5440000000000005</v>
       </c>
       <c r="AH28">
         <f t="shared" si="10"/>
-        <v>6.0600000000000005</v>
+        <v>6.7120000000000006</v>
       </c>
       <c r="AI28">
         <f t="shared" si="10"/>
-        <v>6.2</v>
+        <v>6.8800000000000008</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="10"/>
-        <v>6.34</v>
+        <v>7.048</v>
       </c>
       <c r="AK28">
         <f t="shared" si="10"/>
-        <v>6.4799999999999995</v>
+        <v>7.2160000000000002</v>
       </c>
       <c r="AL28">
         <f t="shared" si="10"/>
-        <v>6.62</v>
+        <v>7.3840000000000003</v>
       </c>
       <c r="AM28">
         <f t="shared" si="10"/>
-        <v>6.76</v>
+        <v>7.5520000000000005</v>
       </c>
       <c r="AN28">
         <f t="shared" si="10"/>
-        <v>6.9</v>
+        <v>7.7200000000000006</v>
       </c>
       <c r="AO28">
         <f t="shared" si="10"/>
-        <v>7.04</v>
+        <v>7.8880000000000008</v>
       </c>
       <c r="AP28">
         <f t="shared" si="10"/>
-        <v>7.18</v>
+        <v>8.0560000000000009</v>
       </c>
       <c r="AQ28">
         <f t="shared" si="10"/>
-        <v>7.3199999999999994</v>
+        <v>8.2240000000000002</v>
       </c>
       <c r="AR28">
         <f t="shared" si="10"/>
-        <v>7.46</v>
+        <v>8.3919999999999995</v>
       </c>
       <c r="AS28">
         <f t="shared" si="10"/>
-        <v>7.6</v>
+        <v>8.56</v>
       </c>
       <c r="AT28">
         <f t="shared" si="10"/>
-        <v>7.74</v>
+        <v>8.7280000000000015</v>
       </c>
       <c r="AU28">
         <f t="shared" si="10"/>
-        <v>7.88</v>
+        <v>8.8960000000000008</v>
       </c>
       <c r="AV28">
         <f t="shared" si="10"/>
-        <v>8.02</v>
+        <v>9.0640000000000001</v>
       </c>
       <c r="AW28">
         <f t="shared" si="8"/>
-        <v>8.16</v>
+        <v>9.2319999999999993</v>
       </c>
       <c r="AX28">
         <f t="shared" si="8"/>
-        <v>8.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AY28">
         <f t="shared" si="8"/>
-        <v>8.4400000000000013</v>
+        <v>9.5680000000000014</v>
       </c>
       <c r="AZ28">
         <f t="shared" si="8"/>
-        <v>8.58</v>
+        <v>9.7360000000000007</v>
       </c>
       <c r="BA28">
         <f t="shared" si="8"/>
-        <v>8.7200000000000006</v>
+        <v>9.9040000000000017</v>
       </c>
       <c r="BB28">
         <f t="shared" si="8"/>
-        <v>8.8600000000000012</v>
+        <v>10.072000000000001</v>
       </c>
       <c r="BC28">
         <f t="shared" si="8"/>
-        <v>9.0000000000000018</v>
+        <v>10.240000000000002</v>
       </c>
       <c r="BD28">
         <f t="shared" si="8"/>
-        <v>9.14</v>
+        <v>10.408000000000001</v>
       </c>
       <c r="BE28">
         <f t="shared" si="8"/>
-        <v>9.2800000000000011</v>
+        <v>10.576000000000002</v>
       </c>
       <c r="BF28">
         <f t="shared" si="6"/>
-        <v>9.42</v>
+        <v>10.744</v>
       </c>
       <c r="BG28">
         <f t="shared" si="6"/>
-        <v>9.56</v>
+        <v>10.911999999999999</v>
       </c>
       <c r="BH28">
         <f t="shared" si="6"/>
-        <v>9.7000000000000011</v>
+        <v>11.08</v>
       </c>
       <c r="BI28">
         <f t="shared" si="6"/>
-        <v>9.84</v>
+        <v>11.247999999999999</v>
       </c>
       <c r="BJ28">
         <f t="shared" si="6"/>
-        <v>9.98</v>
+        <v>11.416</v>
       </c>
       <c r="BK28">
         <f t="shared" si="6"/>
-        <v>10.120000000000001</v>
+        <v>11.584000000000001</v>
       </c>
       <c r="BL28">
         <f t="shared" si="6"/>
-        <v>10.260000000000002</v>
+        <v>11.752000000000001</v>
       </c>
       <c r="BM28">
         <f t="shared" si="6"/>
-        <v>10.4</v>
+        <v>11.920000000000002</v>
       </c>
     </row>
     <row r="29" spans="4:65" x14ac:dyDescent="0.3">
@@ -7271,243 +7271,243 @@
       </c>
       <c r="F29">
         <f t="shared" si="9"/>
-        <v>2.17</v>
+        <v>2.0439999999999996</v>
       </c>
       <c r="G29">
         <f t="shared" si="9"/>
-        <v>2.3150000000000004</v>
+        <v>2.218</v>
       </c>
       <c r="H29">
         <f t="shared" si="9"/>
-        <v>2.46</v>
+        <v>2.3919999999999999</v>
       </c>
       <c r="I29">
         <f t="shared" si="9"/>
-        <v>2.605</v>
+        <v>2.5659999999999998</v>
       </c>
       <c r="J29">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="K29">
         <f t="shared" si="9"/>
-        <v>2.895</v>
+        <v>2.9139999999999997</v>
       </c>
       <c r="L29">
         <f t="shared" si="9"/>
-        <v>3.04</v>
+        <v>3.0879999999999996</v>
       </c>
       <c r="M29">
         <f t="shared" si="9"/>
-        <v>3.1850000000000001</v>
+        <v>3.262</v>
       </c>
       <c r="N29">
         <f t="shared" si="9"/>
-        <v>3.33</v>
+        <v>3.4359999999999999</v>
       </c>
       <c r="O29">
         <f t="shared" si="9"/>
-        <v>3.4749999999999996</v>
+        <v>3.61</v>
       </c>
       <c r="P29">
         <f t="shared" si="9"/>
-        <v>3.62</v>
+        <v>3.7839999999999998</v>
       </c>
       <c r="Q29">
         <f t="shared" si="9"/>
-        <v>3.7650000000000006</v>
+        <v>3.9580000000000002</v>
       </c>
       <c r="R29">
         <f t="shared" si="9"/>
-        <v>3.91</v>
+        <v>4.1319999999999997</v>
       </c>
       <c r="S29">
         <f t="shared" si="9"/>
-        <v>4.0549999999999997</v>
+        <v>4.3059999999999992</v>
       </c>
       <c r="T29">
         <f t="shared" si="9"/>
-        <v>4.2</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="U29">
         <f t="shared" si="9"/>
-        <v>4.3449999999999998</v>
+        <v>4.6539999999999999</v>
       </c>
       <c r="V29">
         <f t="shared" si="7"/>
-        <v>4.49</v>
+        <v>4.8279999999999994</v>
       </c>
       <c r="W29">
         <f t="shared" si="7"/>
-        <v>4.6349999999999998</v>
+        <v>5.0019999999999998</v>
       </c>
       <c r="X29">
         <f t="shared" si="7"/>
-        <v>4.78</v>
+        <v>5.1759999999999993</v>
       </c>
       <c r="Y29">
         <f t="shared" si="7"/>
-        <v>4.9249999999999998</v>
+        <v>5.35</v>
       </c>
       <c r="Z29">
         <f t="shared" si="7"/>
-        <v>5.07</v>
+        <v>5.524</v>
       </c>
       <c r="AA29">
         <f t="shared" si="7"/>
-        <v>5.2149999999999999</v>
+        <v>5.6979999999999995</v>
       </c>
       <c r="AB29">
         <f t="shared" si="7"/>
-        <v>5.36</v>
+        <v>5.8719999999999999</v>
       </c>
       <c r="AC29">
         <f t="shared" si="7"/>
-        <v>5.5049999999999999</v>
+        <v>6.0459999999999994</v>
       </c>
       <c r="AD29">
         <f t="shared" si="7"/>
-        <v>5.6499999999999995</v>
+        <v>6.22</v>
       </c>
       <c r="AE29">
         <f t="shared" si="7"/>
-        <v>5.7949999999999999</v>
+        <v>6.3939999999999992</v>
       </c>
       <c r="AF29">
         <f t="shared" si="7"/>
-        <v>5.9399999999999995</v>
+        <v>6.5679999999999996</v>
       </c>
       <c r="AG29">
         <f t="shared" si="10"/>
-        <v>6.085</v>
+        <v>6.742</v>
       </c>
       <c r="AH29">
         <f t="shared" si="10"/>
-        <v>6.23</v>
+        <v>6.9160000000000004</v>
       </c>
       <c r="AI29">
         <f t="shared" si="10"/>
-        <v>6.375</v>
+        <v>7.09</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="10"/>
-        <v>6.52</v>
+        <v>7.2639999999999993</v>
       </c>
       <c r="AK29">
         <f t="shared" si="10"/>
-        <v>6.665</v>
+        <v>7.4379999999999997</v>
       </c>
       <c r="AL29">
         <f t="shared" si="10"/>
-        <v>6.81</v>
+        <v>7.6119999999999992</v>
       </c>
       <c r="AM29">
         <f t="shared" si="10"/>
-        <v>6.9550000000000001</v>
+        <v>7.7859999999999996</v>
       </c>
       <c r="AN29">
         <f t="shared" si="10"/>
-        <v>7.1000000000000005</v>
+        <v>7.96</v>
       </c>
       <c r="AO29">
         <f t="shared" si="10"/>
-        <v>7.2450000000000001</v>
+        <v>8.1340000000000003</v>
       </c>
       <c r="AP29">
         <f t="shared" si="10"/>
-        <v>7.39</v>
+        <v>8.3079999999999998</v>
       </c>
       <c r="AQ29">
         <f t="shared" si="10"/>
-        <v>7.5350000000000001</v>
+        <v>8.4819999999999993</v>
       </c>
       <c r="AR29">
         <f t="shared" si="10"/>
-        <v>7.68</v>
+        <v>8.6559999999999988</v>
       </c>
       <c r="AS29">
         <f t="shared" si="10"/>
-        <v>7.8250000000000002</v>
+        <v>8.8299999999999983</v>
       </c>
       <c r="AT29">
         <f t="shared" si="10"/>
-        <v>7.97</v>
+        <v>9.0039999999999996</v>
       </c>
       <c r="AU29">
         <f t="shared" si="10"/>
-        <v>8.1150000000000002</v>
+        <v>9.177999999999999</v>
       </c>
       <c r="AV29">
         <f t="shared" si="10"/>
-        <v>8.26</v>
+        <v>9.3519999999999985</v>
       </c>
       <c r="AW29">
         <f t="shared" si="8"/>
-        <v>8.4049999999999994</v>
+        <v>9.5259999999999998</v>
       </c>
       <c r="AX29">
         <f t="shared" si="8"/>
-        <v>8.5500000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AY29">
         <f t="shared" si="8"/>
-        <v>8.6950000000000003</v>
+        <v>9.8739999999999988</v>
       </c>
       <c r="AZ29">
         <f t="shared" si="8"/>
-        <v>8.84</v>
+        <v>10.048</v>
       </c>
       <c r="BA29">
         <f t="shared" si="8"/>
-        <v>8.9850000000000012</v>
+        <v>10.222</v>
       </c>
       <c r="BB29">
         <f t="shared" si="8"/>
-        <v>9.1300000000000008</v>
+        <v>10.395999999999999</v>
       </c>
       <c r="BC29">
         <f t="shared" si="8"/>
-        <v>9.2750000000000004</v>
+        <v>10.57</v>
       </c>
       <c r="BD29">
         <f t="shared" si="8"/>
-        <v>9.4200000000000017</v>
+        <v>10.744</v>
       </c>
       <c r="BE29">
         <f t="shared" si="8"/>
-        <v>9.5650000000000013</v>
+        <v>10.918000000000001</v>
       </c>
       <c r="BF29">
         <f t="shared" si="6"/>
-        <v>9.7100000000000009</v>
+        <v>11.091999999999999</v>
       </c>
       <c r="BG29">
         <f t="shared" si="6"/>
-        <v>9.8550000000000004</v>
+        <v>11.265999999999998</v>
       </c>
       <c r="BH29">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11.44</v>
       </c>
       <c r="BI29">
         <f t="shared" si="6"/>
-        <v>10.145000000000001</v>
+        <v>11.613999999999999</v>
       </c>
       <c r="BJ29">
         <f t="shared" si="6"/>
-        <v>10.290000000000001</v>
+        <v>11.787999999999998</v>
       </c>
       <c r="BK29">
         <f t="shared" si="6"/>
-        <v>10.435</v>
+        <v>11.962</v>
       </c>
       <c r="BL29">
         <f t="shared" si="6"/>
-        <v>10.58</v>
+        <v>12.135999999999999</v>
       </c>
       <c r="BM29">
         <f t="shared" si="6"/>
-        <v>10.725000000000001</v>
+        <v>12.309999999999999</v>
       </c>
     </row>
     <row r="30" spans="4:65" x14ac:dyDescent="0.3">
@@ -7519,19 +7519,19 @@
       </c>
       <c r="F30">
         <f t="shared" si="9"/>
-        <v>2.2000000000000002</v>
+        <v>2.08</v>
       </c>
       <c r="G30">
         <f t="shared" si="9"/>
-        <v>2.35</v>
+        <v>2.2600000000000002</v>
       </c>
       <c r="H30">
         <f t="shared" si="9"/>
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="I30">
         <f t="shared" si="9"/>
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="J30">
         <f t="shared" si="9"/>
@@ -7539,223 +7539,223 @@
       </c>
       <c r="K30">
         <f t="shared" si="9"/>
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="L30">
         <f t="shared" si="9"/>
-        <v>3.0999999999999996</v>
+        <v>3.16</v>
       </c>
       <c r="M30">
         <f t="shared" si="9"/>
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="N30">
         <f t="shared" si="9"/>
-        <v>3.4000000000000004</v>
+        <v>3.5200000000000005</v>
       </c>
       <c r="O30">
         <f t="shared" si="9"/>
-        <v>3.55</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="P30">
         <f t="shared" si="9"/>
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="Q30">
         <f t="shared" si="9"/>
-        <v>3.8500000000000005</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="R30">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>4.24</v>
       </c>
       <c r="S30">
         <f t="shared" si="9"/>
-        <v>4.1500000000000004</v>
+        <v>4.42</v>
       </c>
       <c r="T30">
         <f t="shared" si="9"/>
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="U30">
         <f t="shared" si="9"/>
-        <v>4.45</v>
+        <v>4.7799999999999994</v>
       </c>
       <c r="V30">
         <f t="shared" si="7"/>
-        <v>4.5999999999999996</v>
+        <v>4.96</v>
       </c>
       <c r="W30">
         <f t="shared" si="7"/>
-        <v>4.75</v>
+        <v>5.1400000000000006</v>
       </c>
       <c r="X30">
         <f t="shared" si="7"/>
-        <v>4.8999999999999995</v>
+        <v>5.32</v>
       </c>
       <c r="Y30">
         <f t="shared" si="7"/>
-        <v>5.05</v>
+        <v>5.5</v>
       </c>
       <c r="Z30">
         <f t="shared" si="7"/>
-        <v>5.2</v>
+        <v>5.68</v>
       </c>
       <c r="AA30">
         <f t="shared" si="7"/>
-        <v>5.3500000000000005</v>
+        <v>5.86</v>
       </c>
       <c r="AB30">
         <f t="shared" si="7"/>
-        <v>5.5</v>
+        <v>6.0400000000000009</v>
       </c>
       <c r="AC30">
         <f t="shared" si="7"/>
-        <v>5.6499999999999995</v>
+        <v>6.22</v>
       </c>
       <c r="AD30">
         <f t="shared" si="7"/>
-        <v>5.8</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AE30">
         <f t="shared" si="7"/>
-        <v>5.95</v>
+        <v>6.58</v>
       </c>
       <c r="AF30">
         <f t="shared" si="7"/>
-        <v>6.1</v>
+        <v>6.76</v>
       </c>
       <c r="AG30">
         <f t="shared" si="10"/>
-        <v>6.25</v>
+        <v>6.94</v>
       </c>
       <c r="AH30">
         <f t="shared" si="10"/>
-        <v>6.4</v>
+        <v>7.12</v>
       </c>
       <c r="AI30">
         <f t="shared" si="10"/>
-        <v>6.5500000000000007</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="10"/>
-        <v>6.6999999999999993</v>
+        <v>7.4799999999999995</v>
       </c>
       <c r="AK30">
         <f t="shared" si="10"/>
-        <v>6.85</v>
+        <v>7.66</v>
       </c>
       <c r="AL30">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>7.84</v>
       </c>
       <c r="AM30">
         <f t="shared" si="10"/>
-        <v>7.15</v>
+        <v>8.02</v>
       </c>
       <c r="AN30">
         <f t="shared" si="10"/>
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AO30">
         <f t="shared" si="10"/>
-        <v>7.45</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="AP30">
         <f t="shared" si="10"/>
-        <v>7.6</v>
+        <v>8.5599999999999987</v>
       </c>
       <c r="AQ30">
         <f t="shared" si="10"/>
-        <v>7.75</v>
+        <v>8.74</v>
       </c>
       <c r="AR30">
         <f t="shared" si="10"/>
-        <v>7.8999999999999995</v>
+        <v>8.92</v>
       </c>
       <c r="AS30">
         <f t="shared" si="10"/>
-        <v>8.0500000000000007</v>
+        <v>9.1</v>
       </c>
       <c r="AT30">
         <f t="shared" si="10"/>
-        <v>8.2000000000000011</v>
+        <v>9.2800000000000011</v>
       </c>
       <c r="AU30">
         <f t="shared" si="10"/>
-        <v>8.3500000000000014</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="AV30">
         <f t="shared" si="10"/>
-        <v>8.5</v>
+        <v>9.64</v>
       </c>
       <c r="AW30">
         <f t="shared" si="8"/>
-        <v>8.65</v>
+        <v>9.82</v>
       </c>
       <c r="AX30">
         <f t="shared" si="8"/>
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="AY30">
         <f t="shared" si="8"/>
-        <v>8.9500000000000011</v>
+        <v>10.18</v>
       </c>
       <c r="AZ30">
         <f t="shared" si="8"/>
-        <v>9.1000000000000014</v>
+        <v>10.36</v>
       </c>
       <c r="BA30">
         <f t="shared" si="8"/>
-        <v>9.25</v>
+        <v>10.540000000000001</v>
       </c>
       <c r="BB30">
         <f t="shared" si="8"/>
-        <v>9.4000000000000021</v>
+        <v>10.72</v>
       </c>
       <c r="BC30">
         <f t="shared" si="8"/>
-        <v>9.5500000000000007</v>
+        <v>10.9</v>
       </c>
       <c r="BD30">
         <f t="shared" si="8"/>
-        <v>9.7000000000000011</v>
+        <v>11.080000000000002</v>
       </c>
       <c r="BE30">
         <f t="shared" si="8"/>
-        <v>9.8500000000000014</v>
+        <v>11.260000000000002</v>
       </c>
       <c r="BF30">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11.44</v>
       </c>
       <c r="BG30">
         <f t="shared" si="6"/>
-        <v>10.15</v>
+        <v>11.62</v>
       </c>
       <c r="BH30">
         <f t="shared" si="6"/>
-        <v>10.3</v>
+        <v>11.799999999999999</v>
       </c>
       <c r="BI30">
         <f t="shared" si="6"/>
-        <v>10.450000000000001</v>
+        <v>11.98</v>
       </c>
       <c r="BJ30">
         <f t="shared" si="6"/>
-        <v>10.600000000000001</v>
+        <v>12.16</v>
       </c>
       <c r="BK30">
         <f t="shared" si="6"/>
-        <v>10.75</v>
+        <v>12.34</v>
       </c>
       <c r="BL30">
         <f t="shared" si="6"/>
-        <v>10.9</v>
+        <v>12.52</v>
       </c>
       <c r="BM30">
         <f t="shared" si="6"/>
-        <v>11.05</v>
+        <v>12.700000000000001</v>
       </c>
     </row>
   </sheetData>
